--- a/Ruby/convert wiki data to excel file/touhouSpreadSheet.xlsx
+++ b/Ruby/convert wiki data to excel file/touhouSpreadSheet.xlsx
@@ -8,12 +8,16 @@
     <sheet name="Age" sheetId="3" r:id="rId6"/>
     <sheet name="Occupation" sheetId="4" r:id="rId7"/>
     <sheet name="Location" sheetId="5" r:id="rId8"/>
+    <sheet name="Description" sheetId="6" r:id="rId9"/>
+    <sheet name="Relationships" sheetId="7" r:id="rId10"/>
+    <sheet name="Appearances" sheetId="8" r:id="rId11"/>
+    <sheet name="Titles" sheetId="9" r:id="rId12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="518" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="966" xml:space="preserve">
   <si>
     <t>Name</t>
   </si>
@@ -1577,6 +1581,2210 @@
   </si>
   <si>
     <t>Youkai Mountain near the Moriya Shrine</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>(Touhou 1 to 5) Purple eyes, long purple hair, wears large red ribbon in hair. Clothes are red and white, and strongly resembles a traditional shrine maiden outfit.
+(Touhou 3, alternative outfit) Same as above, but clothes are mainly green instead of red.
+(Touhou 6 and 7) Dark red eyes, black hair, wears large red ribbon in hair. Often carries a gohei, with many paper seals attached in streamers. Wears a red and white dress remotely similar to a shrine maiden's outfit with detached sleeves leaving her shoulders uncovered. Has a red neckerchief.
+(Touhou 7.5, 10, 10.5, and 12.3) Same as above, but her neckerchief is yellow.
+(Touhou 7.5 and 10.5, alternative outfit) Same as above, but the dress is black instead of red.
+(Touhou 8) Same as above, but her hair is dark brown and she has a red dress.
+(Touhou 9) Same as above, but her neckerchief is navy blue. Over the course of these games, her hair grew from shoulder-length to the middle of her back before it became short again in Touhou 11.
+(Touhou 9, alternative outfit) Same as above, but dress is mainly blue instead of red.
+(Touhou 11) Same as above, but her neckerchief is dark blue with a yellow ribbon tied to it. Shoulder-length hair. Dress is red.
+(Touhou 12, 12.5) Same as above, but the neckerchief is entirely yellow again, and Reimu's hair has grown past her shoulders.
+(Touhou 13) Same as above, but her hair has become shorter (possibly the shortest it has ever been). Her gohei is also much longer judging from the title screen.
+(Touhou 13.5) Same as above, except neckerchief is blue again and her hair is brown and longer.
+(Touhou 14) Same as in 13, but her hair is now slightly longer and her neckerchief is once again yellow. She also no longer has a ribbon threaded through the hem of her dress (it has been replaced with a lacy pattern of a similar colour), or ribbons threaded through the bottom of her arm-socks.</t>
+  </si>
+  <si>
+    <t>(Touhou 2) Same as Touhou 3-5, except her eyes and hair were red. Her hair was also short and straight.
+(Touhou 3, alternative outfit) Same as above, but her clothes are mainly white instead of purple.
+(Touhou 3 to 5) Same as Touhou 6-9, except her clothes were purple instead of black, there was a lot less light pink in her outfit, and she didn't have that one-sided braid. When appearing as a boss, rides what appears to be a magical vine instead of a broom.
+(Touhou 6 to 10.5) Same as above, except without the shawl, and the outfit is mainly black instead of navy blue.
+(Touhou 7.5 and 10.5, alternative outfit) Same as above, but her clothes are mainly white instead of black.
+(Touhou 9, alternative outfit) Same as above, but her clothes are mainly purple instead of black.
+(Touhou 11) Golden eyes, blond hair, a braid on only one side of her face, carries a bamboo and straw broom. Wears a navy blue witch's hat with a large pink ribbon, and a navy blue and light pink outfit with a white petticoat, and with a light blue shawl over her shoulders.
+(Touhou 12) Skirt is once again black, with a tan apron over it with an "M" embroidered on it. Wears a black vest over a pink shirt, hair ribbon is now white. Her hat resembles that of a cowboy more than a witch(or the point is floppy and isn't seen at the angle of her in game art). Carries a wand made of wood.
+(Touhou 12.5, 12.8) Golden eyes and blonde hair with a braid down her left shoulder, tied with a green ribbon. Wears a black witches' hat with a star on it, a white apron, a black skirt and a green bow. Holds a bag or purse of some sort in her left hand.
+(Touhou 13) Marisa has her usual attire. However, her hat's bow is purple, a purple ribbon is attached to the left side of her hair, her shoes are maroon colored with small purple ribbons on them, and a red ribbon is tied to her neck.
+(Touhou 13.5) Same as 10.5, except her outfit is dark blue, her shirt has a v-cut at the bottom, her hat is larger, and her hair is more golden than yellow.</t>
+  </si>
+  <si>
+    <t>Form No. 1 - a large, brown Yin-Yang Orb, with red markings.Form No. 2 - a female priestess (?) in red robes with long, flowing red hair, horns and glowing red eyes.Form No. 3 - a male priest (?) in white and blue robes with glowing red eyes. Has a slight resemblence to a feudal souhei.</t>
+  </si>
+  <si>
+    <t>(Touhou 1) A hovering set of five independently-moving eyes, connected by electricity and surrounded by strange markings.</t>
+  </si>
+  <si>
+    <t>(Touhou 1) Dark eyes, long green hair, wears a white cap. Wears a long white and blue dress with red and green markings around its edges. Has a medium-length blue cape with tattered edges, fastened at her neck with a red ribbon. As a Ghost, she has a light-blue tail rather than legs. Appears to have more than two arms. Holds a bloody knife in one of her hands.
+(Touhou 2)
+ Form 1 - Green eyes, long green hair, wears a white cap. Wears a purple dress under a long blue cape. Has a white tail.
+ Form 2 - Same as above, except with a blue, light-blue, and green dress with white symbols on it under a long purple cape. Has large blue and purple wings and wields a long staff topped with a white crescent.
+ Form 3 - Same as above, except with six purple wings.
+(Touhou 3) Same as above, with a long blue cape with yellow trim and markings over a blue vest and dress. The border of her dress is green. A heavy chain can be seen hanging over the left-side of her vest and beneath the cape. Has a dark-blue tail.
+(Touhou 3, Alternative Outfit) Same as above, except her cape, vest, dress and tail is now green, and has blond hair. The border of her dress and her eyes are yellow.
+(Touhou 5) Same as above, but her cape now has white trim and markings and is fastened at her neck with a yellow ribbon. Her blue vest has white sleeves and buttons. No longer has a chain visible beneath her cape over her chest. Appears to have developed legs and now wears white shoes.
+(Akyu's Untouched Score vol.4 cover) Same as above, but she has a ghost tail once again. The sun on her hat is now a star.</t>
+  </si>
+  <si>
+    <t>(Touhou 1) Purple eyes, blond hair, wears a large red bow in her hair, carries a white wand topped with a star in her left hand. Wears a white shirt beneath a blue vest with a red bow and a red dress with purple markings near its edges. Can transform into a purple bat with red eyes.</t>
+  </si>
+  <si>
+    <t>(Touhou 1) A large bronze disc surrounded by a sickly purple aura and engraved with the image of a young girl with long hair, closed eyes, a content expression on her face, and a glowing light-blue orb hovering between her hands in front of her chest.</t>
+  </si>
+  <si>
+    <t>(Touhou 1) Red eyes, black hair, has a red ribbon in her hair and wields a large sword. Wears red robes with white trim and grey sleeves. Has what seems to be either a horn or a spike impaled through her forehead.</t>
+  </si>
+  <si>
+    <t>(Touhou 1) A ghost-like angelic figure with white knee-length hair with seemingly blue eyes. She wears a long, simple blue dress with long white sleeves. He/she has six angel wings and holds a strange wand. Has a weird jewel on his/her chest.</t>
+  </si>
+  <si>
+    <t>(Touhou 2-5) Actually looks like a turtle, except with a grey beard.</t>
+  </si>
+  <si>
+    <t>Stage 1 - Brown eyes, long brown hair in two braids, holds a piece of chalk in her left hand. Wears a white shirt with a purple bow beneath its collar.
+Extra Stage - Purple (brown?) eyes, long purple (brown?) hair in two braids, has white horns, wears a strange red hat. Wears a purple shirt with a red ribbon in front.</t>
+  </si>
+  <si>
+    <t>(Touhou 2) Dark eyes, purple hair, wields a sword. Wears red and white robes.</t>
+  </si>
+  <si>
+    <t>(Touhou 3) A short character with long blond hair and a red-and-white dress. She wears a red bow in her hair and is always seen in the company of Sokrates, her pet cat.
+(Alternate outfit) All red parts are now black.</t>
+  </si>
+  <si>
+    <t>(Touhou 3) Red hair and eyes, wears a purple kimono with red flower markings, and has a yellow bow in her hair.
+(Alternate outfit) Same as above except her hair and eyes are purple, and her kimono is red with purple flower markings.</t>
+  </si>
+  <si>
+    <t>(Touhou 3) Wears a blue and white maid uniform with a frilled white apron, a red ribbon, and a wide-brim hat with a red ribbon on it. Has yellow eyes and blond hair.
+(Alternate outfit) Same as above except her maid uniform is red instead of blue and both ribbons on her are violet.</t>
+  </si>
+  <si>
+    <t>(Touhou 3) Wears a white lab coat with a yellow ribbon at the collar, a white ribbon in her hair, and small round glasses. Her hair and eyes are purple.</t>
+  </si>
+  <si>
+    <t>(Touhou 3) Wears a mostly white sailor uniform with blue trims which looks too small for her and has a blue neckerchief and a white hat. She has blond hair and yellow eyes.
+(Alternate outfit) Same as above, except her sailor uniform and hat is light red with red trims, and her neckerchief is red.</t>
+  </si>
+  <si>
+    <t>(Touhou 3) Red eyes and dark red hair, with a matching dark red cape, vest, cloth shoulders, and skirt. She also has a white shirt and bright red bow tie.
+(Alternate outfit) Same as above except her hair is blond and her eyes are yellow, her dress and cape is black with purple trimmings on her dress and the cloths on her shoulders as well. Her cape has a red trim, and her bow is red/purple.</t>
+  </si>
+  <si>
+    <t>(Touhou 3) Wears blue and white maid uniform with a red bow and a yellow radiation warning symbol on her back. Has light green hair and dark blue shoes.</t>
+  </si>
+  <si>
+    <t>(Touhou 4) Red eyes, long red hair, wears a yellow cap, has a white bow in her hair. Wears green and yellow clothing and carries a baton. Hair turns blue during the final phase of the battle.</t>
+  </si>
+  <si>
+    <t>(Touhou 4) Yellow eyes, long yellow hair, has a white bow in her hair. Wears a white shirt and red suspenders and has a red bow over her chest. She has large purple wings.</t>
+  </si>
+  <si>
+    <t>(Touhou 4) Yellow eyes, yellow hair, wears a pink hat with a red ribbon. Wears a dark red and pink dress and carries a curved scythe.</t>
+  </si>
+  <si>
+    <t>(Touhou 4 First Form) Green eyes, long green hair, wears light pink pajamas, carries a large pink pocketwatch with roman numerals on it.
+(Touhou 4 Second Form, Touhou 5 and 9) Green eyes, long green hair, wears a red plaid skirt (plaid pants in Touhou 4 and 5, and Kioh Gyoku), and a waistcoat of the same color and pattern over a plain white shirt. Usually carries a umbrella. In Touhou 5 and 9, her hair is wavy and cut to shoulder-length, and her eyes are red in Touhou 9 and Kioh Gyoku.
+(Touhou 9, Alternative Outfit) Same as Touhou 9, except her dress is blue.</t>
+  </si>
+  <si>
+    <t>(Touhou 4) Yellow eyes, short yellow hair, wears a pink and blue maid outfit.</t>
+  </si>
+  <si>
+    <t>(Touhou 4) Yellow eyes, medium-length yellow hair, has a red bow in her hair, wears a pink and white dress and a red vest. Has white wings.</t>
+  </si>
+  <si>
+    <t>(Touhou 5) Pink eyes, pink hair, wears a red dress with a white scarf and white sleeves.</t>
+  </si>
+  <si>
+    <t>(Stage 2) Yellow eyes, yellow hair, wears a white hat with a purple bow. Wears a white dress.
+ (Stage 4) Same as above, except with red eyes and blue hair and a blue bow. Seems to have a ghostly aura around her.</t>
+  </si>
+  <si>
+    <t>(Touhou 10.5) Same as TH7.5, but her eyes are a lighter shade of green.
+(Touhou 8) Orange eyes, short blond hair, carries a large black book, and a small red-clothed doll.  Wears a light blue dress with pink ribbons and a red ribbon in her hair.
+(Touhou 7.5) Same as above, except her eyes were very dark green and nearly black, while her doll wears a black dress and a white apron instead.
+(Touhou 7) Same as above, except her eyes were dark blue, she didn't wear boots, and wasn't accompanied by a doll in her portrait. Also wore long sleeves.
+(Touhou 5) Wears a pink dress with a blue apron and a matching headband with a ribbon on the side. Her eyes are gold, and her hair is blonde. She wears white socks.</t>
+  </si>
+  <si>
+    <t>(Touhou 5) Yellow eyes, yellow hair, wears a black hat with a white ribbon. Also wears a black and white dress.</t>
+  </si>
+  <si>
+    <t>(Form 1): Light-blue eyes and hair, has a light pink bow in her hair. Wears a light pink dress and has small light pink wings.
+(Form 2): Same as above, except with large white demon wings.</t>
+  </si>
+  <si>
+    <t>(Touhou 5) Yellow eyes, yellow wavy hair, wears a red and white maid outfit.</t>
+  </si>
+  <si>
+    <t>(Touhou 5) Light-blue eyes, white hair, wears red robes. Sprouts six white wings during the boss fight, which later turn purple with red markings.</t>
+  </si>
+  <si>
+    <t>(Touhou 6) Red eyes, short blond hair. Wears a black vest and skirt, and white blouse. A small red amulet is tied to the left side of her hair, making it look like a ribbon. Her description seems vaguely familiar...</t>
+  </si>
+  <si>
+    <t>(Touhou 6) Short green hair with yellow ribbon. Wears a blue dress with white trim and sleeves.  Also has golden wings.
+(Touhou 12.8) Same as above, except now holding a bouquet of flowers.</t>
+  </si>
+  <si>
+    <t>(Touhou 6,7) Blue eyes, aqua-colored hair and six icicle-shaped wings. Wears a blue ribbon, light pink blouse and blue jumper dress.
+(Touhou 9, 12.3) Same as above, except her ribbon is green instead of blue (however her sprite in 9 still keeps the blue ribbon).
+(Touhou 9, alternative outfit) Same as above, except her bow is a darker shade of green, her blouse appears light purple, and her dress is purple as well.
+(Touhou 12.8) Cirno's bow is once again blue. Her blouse has been changed to white. Has bigger eyebrows.
+(Touhou 14, 14.3) Same as above, except she has four wings, smaller eyebrows and a bigger bow.</t>
+  </si>
+  <si>
+    <t>(Touhou 6, 7.5, 12.3) Has teal eyes. Has long, straight scarlet hair with two braids tied with black ribbons. Wears an olive green cap with a bronze star with the Chinese character 龍 (Lóng, lit. Dragon) in the middle. Wears a decorated olive green dress with a white blouse underneath. Has a black ribbon tied on the collar of her blouse.</t>
+  </si>
+  <si>
+    <t>(Touhou 6) Wears a black dress with white sleeves. She has a small pair of black, bat-like wings on the sides of her head and back and long red hair.</t>
+  </si>
+  <si>
+    <t>(Touhou 6) Her hair and eyes are purple, and  has many ribbons tied to her hair and other body parts. She wears pajama-like clothing and a night-cap which are, according to ZUN, her daily wear.
+(Touhou 7.5 and 10.5, alternate outfit) Her outfit is mostly lavender while her hair is a darker shade of violet.</t>
+  </si>
+  <si>
+    <t>(Touhou 9) Dark blue eyes, silver hair, has a long braid on each side of her face with green bows at the ends, she carries many knives. Wears a pink and dark blue French maid's outfit with long sleeves, and a white maid headband on her head. The Roman numerals for 1 through 12 line the bottom of her apron.
+(Touhou 9, alternative outfit) Same as above, but her outfit is mainly dark red instead of dark blue.
+(Touhou 7.5, 8, 10.5) Same as Touhou 9 outfit, except her apron has no text and is wearing short sleeves.
+(Touhou 7.5 and 10.5, alternative outfit) Same as above, but her outfit is mainly light blue with a white apron and her hair is light green.
+(Touhou 7) Same as Touhou 9 outfit, except her apron has no text and is wearing blue colored long sleeves and a red scarf.
+(Touhou 6) Same as Touhou 9 outfit, except she had bright red eyes, short sleeves, and the phrase "Red Magic" embroidered on her left sleeve.</t>
+  </si>
+  <si>
+    <t>Red eyes, short light-blue hair, pair of black bat-like wings on back. Wears a pink mob cap and dress, with bright red trimming. Noticeably short. 
+(Touhou 7.5 and 10.5, alternate outfit (Palette) ) Dress is red instead of pink and her hair is also blonde. This color scheme seems vaguely familiar...
+(Touhou 6, 7.5 and 10.5) Same as above, but she wears a necklace featuring something like Caduceus.</t>
+  </si>
+  <si>
+    <t>(Touhou 6) Has red eyes and short blonde hair, which is tied into a single ponytail on her left side. Wears a red skirt and vest, with a yellow neckerchief and a pink shirt underneath. Also wears a pink mob cap with a red ribbon attached. Her wings appear to be made of iron and prism shards. She carries a matching metal wand with her, which is apparently the mythical Lævateinn. Arranged from her back to the tip of her wings her 8 crystals are presented as follows: Light Blue, Blue, Purple, Pink, Orange, Yellow, Light Green and Light Blue again. Has longer hair than Remilia.</t>
+  </si>
+  <si>
+    <t>If we accept the girl depicted in the circle cut is Rin Satsuki, then Rin appears to wear a large ribbon on her hair with cherry hair pins and a dress-like blouse. She holds an erhu upside down. The colors are unknown because the circle cut is in monochrome. However, fans have colored her with blond hair, a pink blouse with a red underdress. Her ribbon is red and her skin color is a pale-like color. She has socks that are a light pink color.</t>
+  </si>
+  <si>
+    <t>(Touhou 7) Lavender eyes and curly lavender hair.  Wears a blue and white dress, with a golden lapel resembling the alchemical symbol for silver.  Also wears a white cap and a nearly transparent cape. Has white lipstick.</t>
+  </si>
+  <si>
+    <t>(Touhou 7, 10.5) Dark orange eyes, brown hair, wears a green mob cap.  Has cat ears, with a gold earring in the left one, and two tails.  Wears a red and light pink outfit with gold trimming.  Has long red fingernails.
+(10.5, alternative Yukari spell) Outfit is orange instead of red, and the ribbon is green.
+(12.3) Various, depending on Yukari's outfit</t>
+  </si>
+  <si>
+    <t>(Touhou 7, 9) Green eyes, long blond hair, has a pair of white feathered wings. In most stages, her hat and dress are white, with a red wave pattern outlining the edges. In Shikieiki Yamaxanadu's stage, in Phantasmagoria of Flower View, her hat and dress are black, with a red wave pattern outlining the edges.</t>
+  </si>
+  <si>
+    <t>Lunasa
+(Touhou 7,9) Gold eyes, short blond hair, always seen with her violin floating nearby.  Band uniform is black, with white and red trim. Her hat has a red crescent moon decoration at the peak.
+(Touhou 9, alternative outfit) Same as above, except her dress is black.
+Merlin
+(Touhou 7,9) Blue eyes, wavy light-blue hair, always seen with her trumpet floating nearby.  Band uniform is pink, with blue and black trim. Her hat has a blue sun decoration at the peak.
+(Touhou 9, alternative outfit) Same as above, except her dress is cyan, and her trumpet is silver.
+Lyrica
+(Touhou 7,9) Brown eyes, short light brown hair, always seen with her winged keyboard floating nearby. The keyboard has "L.P." (her initials) written. Band uniform is red, with pink and black trim. Her hat has a green shooting star decoration at the peak.
+(Touhou 9, alternative outfit) Same as above, except her hair is lighter in color, clothes are yellow, and her hat's shooting star is blue. Keyboard has now "Prismriver" written on it.</t>
+  </si>
+  <si>
+    <t>(Touhou 8,9) Her human half has dark blue eyes and short silver hair and carries a katana with a cherry blossom insignia and flower attached and a wakizashi (short Japanese sword).  She wears a dark green and white dress with several ghost insignias along the edges and breast pocket and a black ribbon placed off-center on her hair.  Her ghostly half is a formless phantom as large as her human half.  The two halves are always seen together. During her Last Word, her eyes are red.
+(Touhou 9, alternative outfit) Same as above, but her outfit is a brighter shade of green.
+(Touhou 7.5, 8, 10.5) Same as Touhou 9 outfit, except she wore short sleeves.
+(Touhou 7.5, and 10.5, alternate outfit) Same as above, except her dress in purple instead of green and her hair is pink.
+(Touhou 7) Same as Touhou 9 outfit, except she had bright red eyes and wore long sleeves.
+(Touhou 13) Same as Touhou 9 outfit, except she has grey eyes, and the ends of her hair are a darker shade of grey.</t>
+  </si>
+  <si>
+    <t>(Touhou 7) Maroon eyes, short wavy pink hair, normally surrounded by several small formless ghosts, one carrying a cherry blossom twig. Wears a light blue and white kimono with dark blue trim, and a blue mob cap on the front of which is a hitaikakushi with a red ghost insignia.
+(Touhou 8) Same as above, except the floral designs on her dress have been replaced with clouds and moon designs. One of the spirits now carries a small blue lantern.
+(Touhou 7.5 and 10.5, alternate outfit) Kimono is white with dark blue trim instead of light blue with pink trim. Her hair is blonde as well.
+(Touhou 13) Same as above, except she has a lighter shade of pink hair and her eyes are dark blue. Her kimono has has a ghost pattern. The kimono has a black trim instead of a dark blue one.</t>
+  </si>
+  <si>
+    <t>(Touhou 7) Yellow eyes, short blonde hair, wears a pink two-tailed hat with many amulets. Has fox ears which are hidden under her hat, and nine fox tails.  Wears a blue and white outfit similar to Yukari's in later series.
+(Touhou 10.5, alternative Yukari spell) Wears outfit similar to normal version, however her eyes, hair, and amulets on hat are green instead of yellow.</t>
+  </si>
+  <si>
+    <t>(Touhou 8) Dark golden eyes, long blond hair, usually carries a pink parasol.  Wears a pink and purple dress, and a pink mob cap with a thin red ribbon tied in the front. During her last word spell card, Yukari is in her Touhou 7 outfit, but the ribbons on her parasol, hat, gap, hair, and shoes are blue. Her gap is blue as well. 
+(Touhou 7.5, 10.5) Same as the above, but her long blond hair has been coiled up into her white mob cap. 
+(Touhou 7.5, 10.5, alternate outfit) Same as the above, but her dress is yellow and orange instead of pink and purple, and she has green hair instead. 
+(Touhou 7) Purple eyes, long blond hair, carries a pink lace parasol and a paper fan, rides on a red boundary to unknown destination. Wears a deep purple dress, a pink mob cap, and red ribbons tied liberally on her accessories.</t>
+  </si>
+  <si>
+    <t>(Touhou 7.5, 10.5, 12.5) She has brown eyes. Has long ginger hair, tied with a chain with a blue cube on the end. Has two horns coming out, decorated with red and purple ribbons. Wears a tattered white singlet and a long purple skirt. Has chains on both wrists that are hanging on a red pyramid and a yellow sphere. And a belt on her waist.
+(Touhou 13.5) She is wearing a blue kimono.</t>
+  </si>
+  <si>
+    <t>(Touhou 8) Blue eyes, short teal hair, bug-like antennae. Wears a white shirt with stylized long sleeves, a black cape (red on inner side), and knee-length blue baggy shorts standing with a firefly familiar</t>
+  </si>
+  <si>
+    <t>(Touhou 8,9) Grey eyes, pink hair, pointed ears like an owl, light pink bird-like wings with purple highlights. Dresses in white and brown clothing.  Hat and dress contain numerous bird-shaped ornaments.
+(Touhou 9, alternative outfit) Same as above, but her clothes are green, and her wings have red highlights.</t>
+  </si>
+  <si>
+    <t>(Touhou 8, human form) Brown eyes and long silver hair with blue highlights. Wears a hat that looks like some kind of building with a red ribbon on top and glyphs inscribed along its side. Her dress is dark blue with white short sleeves, and a red ribbon is tied to the bottom of the collar.
+(Touhou 8, hakutaku form) Red eyes, long silver hair with green highlights, and horns. Her left horn is decorated with a red ribbon. Her dress is dark green with white short sleeves, and a red ribbon is tied to the bottom of the collar.
+(Touhou 13.5, human form) Same as above, except her hat is simpler.</t>
+  </si>
+  <si>
+    <t>(Touhou 9) Dark red eyes, black shoulder-length hair, and white fluffy rabbit ears. Dresses in a frilly, pink nightgown. Wears a carrot necklace.
+(Touhou 9, alternative outfit) Same as above, except her dress is black.
+(Touhou 8) Same as above, but she does not wear shoes and the carrot necklace.</t>
+  </si>
+  <si>
+    <t>(Touhou 10.5) Same as Touhou 9, but is wearing a short sleeve white shirt, a red belt, and a blue skirt.
+(Touhou 10.5, alternate outfit) Same as above, except her dress, her ears and eyes are both dark green, and shirt and hair are light green.
+(Touhou 9) Red eyes, long light-purple hair and long rumpled rabbit ears. Dresses in a white shirt with a red necktie. There is a clip on her necktie in the shape of a carrot. Wears a purple skirt.
+(Touhou 9, alternative outfit) Same as above, except her shirt is black and her tie is yellow.
+(Touhou 8) Same as Touhou 9, but with a black business suit over her shirt. Her left suit-collar is decorated with a crescent moon-shaped insignia, and there appears to be paper or business cards poking out of her left shirt pocket. Wears a beige skirt.</t>
+  </si>
+  <si>
+    <t>(Touhou 8) Dark grey eyes, long white hair, has a large braid on her back, and carries a strange pair of bow and arrow. Her clothing is red and blue, and is covered with constellation patterns. She also wears something similar to a nurse's cap.</t>
+  </si>
+  <si>
+    <t>(Touhou 8) Dark brown eyes, very long black hair.  Wears a pink shirt with many white bows, and a long, dark burgundy skirt decorated in yellow with bamboo and flower shapes. Her 5 Impossible Requests are seen floating around her, probably waiting for her order to engage in a Spell Card attack.</t>
+  </si>
+  <si>
+    <t>(Touhou 8) Red eyes and ankle-length ivory hair. Wears a light brown shirt that appears as if it has been discolored from fire, and dark red overalls that are randomly decorated with paper charms. Her hair is tied with these same red and white paper charms.
+(Touhou 13.5) Same as above, except her hair is waist length, and her shirt has short sleeves.</t>
+  </si>
+  <si>
+    <t>(Touhou 12.5) Same as her Touhou 10 appearance, but with puffier and longer hair, her calf-high socks from Touhou 10.5, and an orange armband reading 「取材中」 (Shuzaichuu: "collecting material"). She is also shown without her fan and white puffs. Her ears are visible again but now pointed. The color of her camera lens is now red. 
+(Touhou 10.5) Same as her Touhou 9 appearance, but wears calf-high socks.
+(Touhou 10.5, alternate outfit) Hair and dress are gray, blouse is dark gray, fan is orange instead of yellow, and Tokin is blue instead of red. Normal ears are visible in her portrait.
+(Touhou 10) Red eyes, semi-long black hair. Wears a white blouse with brown leaf-print sides, a black short skirt with brown leaf-print portions, and a Tokin with several white puffs of feathers hanging from it. Carries a hauchiwa fan.
+(Touhou 9) Red eyes, semi-long black hair, with a crow perched on her shoulder. Wears a white blouse, a black short skirt, and a Tokin. Carries a journal of some sort. She is no longer shown with wings.
+(Touhou 9, alternative outfit) Same as above, but her Tokin is green, and her fan is blue.
+(Bohemian Archive in Japanese Red) Red eyes, semi-long black hair, usually seen with a crow following her. Wears a white blouse, a black short skirt, and a Tokin. She is sometimes shown with black wings.</t>
+  </si>
+  <si>
+    <t>(Touhou 9) Silver-coloured eyes, blonde hair, wears a black shirt &amp; a red skirt. Has a red ribbon in her hair, and is accompanied by a tiny doll that is similar to her appearance.
+(Touhou 9, alternative outfit) Same as above, but the red highlights in her dress are purple, and her dress is dark blue.</t>
+  </si>
+  <si>
+    <t>(Touhou 9) Red eyes, short pinkish red hair with two ponytails tied by two double hair beads, wears a white dress with a blue vest overtop.  Has an obi belt with a large coin tied in the center, and carries a scythe with a wisp-like bending on the end.
+(Touhou 9, alternative outfit) Same as above, except her hair beads are yellow, and her vest is green.
+(Touhou 10.5, alternate outfit) Dress is red instead of blue, and she has pink hair.</t>
+  </si>
+  <si>
+    <t>(Touhou 9) Blue eyes, green hair that is longer on the left side, wears a dark blue, black and white dress with gold decorations with one ribbon on both sleeves and a blue and white hat with a gold symbol in front and a red and white bow on the back that are balanced equally.  Carries a rod that carries out Judgements of Death. There seems to be a pattern on her uniform that seems balanced. Also wears Black shoes with a red bow on them, and frilly socks.
+(Touhou 9, alternative outfit) Same as above, but her hat and dress are red, and her white shirt is purple.</t>
+  </si>
+  <si>
+    <t>(Touhou 10) Wears a long red dress that ends in cut-out leaf shapes at the bottom and has a white collar at the top. She has yellow-orange eyes and short blond hair with red autumn leaves in it.</t>
+  </si>
+  <si>
+    <t>(Touhou 10, 12.5) Red eyes, dark blond hair.  She wears a yellow blouse with poofy sleeves and a red dress which goes about halfway up her chest and has black straps over the shoulders.  The dress has a wheat pattern at the bottom, and her red hat has a cluster of blue grapes on the front.</t>
+  </si>
+  <si>
+    <t>(Touhou 10, 12.5) Aquamarine hair and eyes.  Her hair is decorated with very frilly red bows (the frills are white), and part of her hair is tied under her chin with a bow.  Her dress is red with white frills on the bottom and an enormous white kerchief on top; the bottom also has a medium aquamarine swirl resembling the "厄" (misfortune) kanji at the bottom. She also wears knee-length black boots similar to Alice Margatroid's.</t>
+  </si>
+  <si>
+    <t>(Touhou 10, 12.5) Blue hair and eyes.  She wears a blue dress with lots of pockets for tools around the hem of the skirt and her upper arm, and a dark aquamarine backpack with a golden key on the strap in front of her. She also wears a green hat, blue wellington boots and carries a cattail.
+(Touhou 13.5) Same as above, except her backpack is blue and considerably larger, and has a necklace with 2 red beads. She now wields a wrench.</t>
+  </si>
+  <si>
+    <t>(Touhou 10,12.5) Wears a white, long-sleeved shirt and a large black skirt. Has short white hair and a red Tokin. Wields a Tinbe-rochin; her rochin is particularly long and resembles a machete or scimitar, while her tinbe is white and has a red maple leaf printed on it.</t>
+  </si>
+  <si>
+    <t>(Touhou 10, 12.3, 12.5, 13) Wears a blue and white outfit similar to a shrine maiden's with light blue polka dots and stripes covering the blue areas. Has long light green hair, and yellow eyes (dark-green in Undefined Fantastic Object, Ten Desires, and blue in Touhou Hisoutensoku). Wears a snake-shaped hair accessory wrapped around her hair on one side, and a hair clip shaped like a frog's head (both probably meant to represent Kanako and Suwako).</t>
+  </si>
+  <si>
+    <t>(Touhou 10, 12.5) Has an elaborate red shirt with long white sleeves and a round mirror over the center of her chest. Wears a long black skirt with a red flower print hem. Has poofy intense blue hair and dark red eyes. Behind her is a large twisting rope circle shimenawa with shide. (Decoration Purpose)</t>
+  </si>
+  <si>
+    <t>(Touhou 10-12.3, 12.5) Wears a short simple purplish-blue dress with a frog print design, large white sleeves stitched onto the torso, and a white collar. Has medium length blond hair, grey eyes, and wears a light brown wide-brimmed hat with two frog eyes on the top. Has white kneehighs and black shoes.</t>
+  </si>
+  <si>
+    <t>(Touhou 10.5, 12.3, 12.5) Red eyes and short violet blue hair. Wears a white and red shirt, a long black skirt, and a hat with a red bow and two long ribbons extending out.  Has a white and red shawl entwined along her arms and blouse. Both the shawl and the shirt glows in scarlet color.
+(Touhou 10.5, alternate outfit) She has light green eyes with gray hair, and her dress is mostly maroon.</t>
+  </si>
+  <si>
+    <t>(Touhou 10.5, 12.3, 12.5) Dark red eyes, long blue hair. Wears a blue dress and brown boots, carries an apron on her dress. Wears a black hat decorated with peaches.
+(Touhou 10.5, alternate outfit) Dress, hat, and boots are red instead of brown, her blouse and apron are pink, and her hair is red-orange.</t>
+  </si>
+  <si>
+    <t>(Touhou 11, 12.5) Pale skin with dark teal eyes and hair tied up in pigtails by white hair beads. The bucket she sits in is a cherry brown with black hoops near the top and bottom. Her outfit is unknown but looks like it's a white robe.</t>
+  </si>
+  <si>
+    <t>(Touhou 11, 12.5) Brown eyes, blonde hair tied up in a bun with a ribbon. Wears a black and brown dress that's poofy under the waist. Has a yellow ribbon tied around her lower body.</t>
+  </si>
+  <si>
+    <t>(Touhou 11, 12.5) Has curly blond hair and green eyes, and her skin appears to be a bit green too. Wears an odd dress; the top is brown with purple borders and a pink sash, and the bottom is blue, purple and black with criss-crossed red strings hanging on the bottom edge. Has a pink scarf tied around her neck and pink puffy arm socks.</t>
+  </si>
+  <si>
+    <t>(Touhou 11, 12.5) Long, straight blonde hair, red eyes, and a single red horn coming out of her forehead.  Wears a white, short-sleeved shirt with red trim at the cuffs, neck, geta sandals, and bottom and a dark blue translucent skirt with red highlights and trim.  Her wrists and ankles are manacled, with short, broken chains attached to the manacles.
+(Touhou 13.5) Same as above, except she is wearing a blue kimono.</t>
+  </si>
+  <si>
+    <t>(Touhou 11, 12.5) Has short, purple hair with a black hairband and purple eyes. A red "third eye" is positioned over her heart, with cords running to her head and wrists. Wears a blue shirt with yellow heart buttons and pink collar, a pink skirt with faint flowery pattern and pink slippers.</t>
+  </si>
+  <si>
+    <t>(Touhou 11, 12.5) Has black cat ears and dark red eyes, with fiery red hair styled into twin braids and adorned by black ribbons. Wears a black and green decorated dress. She's pushing a wheelbarrow in one hand and holding a bluish spirit in the other. Surrounding her are several more of these spirits.</t>
+  </si>
+  <si>
+    <t>(Touhou 11, 12.3, 12.5) Long raven-dark brown hair. Wears a white short-sleeved shirt with a red "eye" in the center, a short green skirt, and a green hair-ribbon. On her right arm, she wears a device known as the "Third Leg", which appears to regulate the power of the devices on her legs (aka a control rod, though it has been referenced as an arm cannon by many fans and is used as one in Hisoutensoku). She wears a cape that's white on the outside and a starry pattern on the inside; the cape is kept aloft by her black wings. Her right foot is encased in congealed matter, representing the "elephant's foot" of Chernobyl -her Leg of Fission. Her left foot is being orbited by atoms - her Leg of Fusion.</t>
+  </si>
+  <si>
+    <t>(Touhou 11, 12.5) Has wavy, grey-greenish, short hair and dark green eyes, wears a black hat with a yellow ribbon around it. A closed, dark blue "third eye" is positioned over her heart, with cords wrapped around her torso and attached to each of her ankles.  Wears a yellow shirt with diamond-like blue buttons and dark green collar. The skirt is also green with a faint flowery pattern, but a lot lighter. Her socks are black.
+(Touhou 13.5) Same as above, except her hair is bright green with yellow shine and it is slightly shorter. Her third eye and its cords are now dark purple and her socks are dark blue.</t>
+  </si>
+  <si>
+    <t>(Touhou 12, 12.5) Gray hair, red eyes. Wears a brownish-black one-piece with pink sleeves and a gray capelet. She also wears a necklace with a crystal pendant. Carries dowsing rods with the letters for the cardinal directions on the ends. She also carries a mouse in a basket by her tail. When she appears as the Stage 5 midboss, she is carrying the jeweled pagoda of Bishamonten, which belongs to Shou Toramaru.</t>
+  </si>
+  <si>
+    <t>(Touhou 12, 12.5, 13) Turquoise hair, one turquoise eye and one red eye (Heterochromia). Wears a blue-green vest with white sleeves and a light blue skirt. Uses a purple umbrella with an eye and a tongue protruding out of it.</t>
+  </si>
+  <si>
+    <t>(Touhou 12) Has light purple wavy hair and dark purple eyes. Carries a medium-sized yellow ring in her right hand. On her head, she wears a headdress similar to a Hijab or a nun's headdress. She wears a white dress with a blue trim at the bottom, and wears black shoes. She is also always seen with Unzan.
+(Touhou 13.5) Same as above, but now she wears a red amulet and a black and yellow kesa, and her hair is a lighter shade of blue.</t>
+  </si>
+  <si>
+    <t>(Touhou 12, 12.5) Black hair, teal eyes, wears a white and teal sailor suit with a sailor hat and red neckerchief. Also carries a large anchor, along with a Hishaku (purification ladle).  During some of her spellcards she turns all green with an "old film" effect on her, most likely her "ghost form".
+(Touhou 13.5) Same as above, but her hat and anchor are larger.</t>
+  </si>
+  <si>
+    <t>(Touhou 12, 12.5) Has orange-yellow hair with black stripes in it and golden yellow eyes. Wears a lotus-shaped ornament on her head. Has a giant cloth circle attached to her back and carries a giant spear in her left hand and the jeweled pagoda of Bishamonten in her right. Wears a burgundy/orange/white dress with a tiger pattern around the abdomen. She wears white, frilly pants under her dress and black shoes on her feet.</t>
+  </si>
+  <si>
+    <t>(Touhou 12, 12.5) Has long, wavy, light brown hair that has a purple gradient at the top, with hazel or light brown eyes. Wears a black and white dress with long strips of black ribbon going across the middle and white ribbon across the arms. Along with this dress, she wears a long cape. She also holds a magical scroll.
+(Touhou 13.5) Same as above, except her eyes are purple and she is wearing an amulet with 5 jade beads. Her scroll is closed and she is wearing a large yellow hat. Her sleeves are much shorter and she does not wear a cape.</t>
+  </si>
+  <si>
+    <t>(Touhou 12, 12.5, 13) She has short black hair and dark red eyes. She has three red metallic-looking wings on the right side of her back, and three blue arrow-shaped tails coming out from her left side. Carries a trident, has a snake on her right arm (which might be the Seed of Non-Identification), and also wears a black wristband on her left wrist.  Her dress is all black with blue and white trim in the middle, a red bow on the front, and a small, yin-yang-like tomoe design at the bottom corner of the skirt of her dress. She wears black thigh-high stockings and red shoes with bows on them.
+(Touhou 13.5) Same as above, but her red wings are larger.</t>
+  </si>
+  <si>
+    <t>Glossy, yellowish-brown flesh, bulbous eyes, single protruding dorsal fin, and whiskers.</t>
+  </si>
+  <si>
+    <t>(Touhou 12.5) A tengu with brown eyes, and long brown hair in pigtails with purple ribbons. She wears a white shirt with purple trim on the collar and a thin black tie, a black band around one arm, a purple tokin, a skirt in black/purple checker pattern with a floral pattern on the purple, a small brown pouch on her hip, thigh-high black socks (which are rolled down just below her knees), and red geta sandals with burgundy-purple straps. She carries a camera, looking like a modern cell phone, with a yellow/dark yellow checker pattern, a heart on it, and a brush hanging from it like a charm.</t>
+  </si>
+  <si>
+    <t>Sunny: Light blue eyes and short gold hair braided by the sides of her head.  Wears a dress-like cloth which is red and white colored. Has a pair of wings that apparently isn't directly connected to her actual body. 
+Luna: Red eyes, curly blond hair, wears a hat similar to Remilia's.  Wears a white one-piece skirt and black ribbons are tied on parts of her body. Has a pair of wings that apparently isn't directly connected to her actual body.
+Star: Brown eyes, long straight black hair, often seen with her pink cartoon-ish parasol. Wears blue dress-like clothes and a big blue ribbon on her head. Has a pair of wings that apparently isn't directly connected to her actual body.</t>
+  </si>
+  <si>
+    <t>(Touhou 13) Has turquoise, short, puffy hair with two dark brown ears. Wears a pink long-sleeved dress with a white dress with a black trim on the hem underneath. The dress is decorated with teal flower buttons. Wears black shoes and white socks. Carries a broom.</t>
+  </si>
+  <si>
+    <t>(Touhou 13) A pale-skinned girl with short, fluffy cadet hair and dark blue eyes. Has a red shirt with blue buttons and light pink edges. Has a black ribbon hanging off her neck. Wears a black knee-length skirt with light pink trim. Has her arms outstretched like a Jiang Shi. She has black shoes.</t>
+  </si>
+  <si>
+    <t>(Touhou 13) She has short azure hair with two rings with a golden staff running through it. Has dark blue eyes. Has an aquamarine dress with a beige vest decorated with dark blue patterns. Has a brown belt with a flower on her waist. She also has black shoes and white socks with a cursed bracelet on each leg.</t>
+  </si>
+  <si>
+    <t>(Touhou 13) Has short, light green curly hair and a black top hat with a white and violet square in it. Has light green eyes. Wears a long-sleeved emerald dress with two crosses on her chest. The hem of her dress bears white rectangles outlined with violet. Has ghostly legs.</t>
+  </si>
+  <si>
+    <t>(Touhou 13) Has grey eyes and light grey hair tied with a long ponytail. Wears a tall dark blue hat decorated with white strings. Wears a white robe with teal and red strings stitched on the edge of the sleeves. She has one large black button and a smaller one underneath on the robe. Has black strings on the collar. She has a teal and gold blouse underneath. Has an indigo skirt with white fluff underneath. Has dark blue shoes with yellow anklets.
+(Touhou 13.5) Same as above, except she looks younger, she is shorter, her hair is brown-ish.</t>
+  </si>
+  <si>
+    <t>(Touhou 13) Has short ivory hair that look like horns. She has purple headphones with the word "和" (pronounced Wa meaning harmony) on it. She has ivory eyes. Wears a bright purple dress with a light pink vest on top that has purple patterns. Carries a golden Shaku and has a sword case similar to the one Prince Shoutoku carries resting on her black belt. Has platinum sandals.
+(Touhou 13.5) Same as above, except her shaku is longer, and now wears a purple cloak. She has a magenta glow in her hair.</t>
+  </si>
+  <si>
+    <t>(Touhou 13, 14.3) Has brown fluffy hair with a green leaf on top. Has ears and a tail like a Tanuki would have. Wears round glasses and two black bracelets. Her top is brass and has a notepad of confidence and a bottle of 酒 sake that represents virtue. Has pink shoulder caps. Her skirt is maroon with brass patterns. She has brownish sandals.
+(Touhou 13.5) Same as above, except her leaf is larger and has bells, and her glasses are white.</t>
+  </si>
+  <si>
+    <t>(Touhou 13.5) Kokoro has long, pink hair and pink, empty eyes. She wears a blue blouse with a plaid pattern. Her skirt is in a pumpkin shape, depicting of several faces on it. She carries a total of 66 masks with her, which all holds a different emotion and face. However, she mainly uses the masks holding the emotions of joy, anger, pathos, and humour.</t>
+  </si>
+  <si>
+    <t>(Touhou 14, 14.3) She has dark blue hair and eyes, as well as small fins in the place of ears. She wears a frilly green leaf-patterned kimono which fades to teal at the bottom. In the place of legs, she has a blue-grey fish tail ending in two large fins.</t>
+  </si>
+  <si>
+    <t>(Touhou 14) Sekibanki has red hair and eyes. She wears a blue bow with red trimmings. Also, a red and blue capelet that covers part of her face. She also wears a black and red long sleeved shirt, as well as a dark red skirt and red and black boots.</t>
+  </si>
+  <si>
+    <t>(Touhou 14) In her wolf form, Kagerou has dark brown hair and red eyes. She has two wolf ears. She wears a long, blue-white and red dress, ending in a black trim with a cobweb pattern. At the neck of her dress is a red amulet. She has long, red nails.</t>
+  </si>
+  <si>
+    <t>(Touhou 14) Benben has lavender hair which is short in the front and long at the back, and she has grey eyes. Her outfit consists of a brown-black dress, with long white sleeves and a transparent frill on the skirt. She is barefooted and wears a small floral accessory in her hair. She also carries a biwa that is chained to her left hand.</t>
+  </si>
+  <si>
+    <t>(Touhou 14, 14.3) Yatsuhashi has brown eyes and brown hair with a purple, black-trimmed headband. She dresses in a white blouse with light purple and black trims, along with black skirt with a petticoat underneath, and a purple ribbon on her lower back. Areas around her skirt are surrounded with seven red strings, which is probably a Koto. She doesn't wear any shoes.</t>
+  </si>
+  <si>
+    <t>(Touhou 14) Seija has red eyes. She has black hair with one red highlight, and several white highlights as well with two small horns. She dresses in a white, black, red dress and a small white-trimmed, blue-colored, reversed ribbon around her waist. She has an armlet on her right wrist, and wears light brown sandals with purple straps.
+(Touhou 14.3) Same as above as for her in-game profile. Her hair appears shorter and wavier on her main screen profile.</t>
+  </si>
+  <si>
+    <t>(Touhou 14) Shinmyoumaru has short purple hair and brown eyes. Wears a pink kimono with a black obi and a frilled dress (probably petticoat) underneath. Has a black bowl with golden decorations as a hat. Holds a needle on her right hand, while the Lucky Mallet is being held on her left hand. Her height is short, since she is a Dwarf.</t>
+  </si>
+  <si>
+    <t>(Touhou 14) Raiko has red eyes, as well as red hair. She dresses in a white suit-like dress with a plaid-like, crisscrossed black and red undershirt, and a small purple tie. She wears black boots with red seams. Her upper body is surrounded by eight red drums, and she is shown sitting on a white drum and holding two drumsticks. She also has a black armband on her right arm.</t>
+  </si>
+  <si>
+    <t>Golden eyes, short silver hair, wears a pair of glasses. His clothes are black and blue, and he often carries a small bag with him.</t>
+  </si>
+  <si>
+    <t>White hair that is partly blue, red eyes, and she wears a black dress with blue trim.</t>
+  </si>
+  <si>
+    <t>(Ghostly Field Club) Brown hair. Wears a black hat, tie, white suit, bands around her sleeves, and a brown dress. Carries around a book.
+(Changeability of Strange Dream) Same as above, but now has a white bow on her hat and the bands around her sleeves are gone.
+(Retrospective 53 minutes) Same as above, but now her tie is gone, and the ribbon on her hat is red.
+(Magical Astronomy) Same as Retrospective 53 minutes, except now she has a black shawl on her.
+(Neo-Traditionalism of Japan) Same as above, but now her shawl is gone. Her sleeves are short, and she isn't carrying her book around.</t>
+  </si>
+  <si>
+    <t>(Ghostly Field Club) Blonde hair. Wears a purple dress and a white mob cap.
+(Changeability of Strange Dream)
+(Retrospective 53 minutes)
+(Magical Astronomy)
+(Neo-Traditionalism of Japan) Same as above, but she wears a light blue shirt and a purple skirt now.</t>
+  </si>
+  <si>
+    <t>Purple/black hair and eyes, wears a light pink flower-shaped ornament in her hair which matches flowers on her sleeves. Her outfit resembles a "wa lolita" type or a Japanese-esque maid outfit. It has yellow flower-patterned sleeves, a green vest, and a shortened hakama skirt separated by a red, white laced obi.</t>
+  </si>
+  <si>
+    <t>(Touhou 10.5) (While part of Alice's portrait) Same as below except her bows are colored a lighter red and her dress is even darker in color. She appears to be holding a razor.
+(Touhou 7.5) (While part of Alice's portrait during conversation) She has blonde hair and blue eyes. She also wears a long dark purple dress with a white apron and white shoulders, and matching dark purple shoes. There is a large red bow in her hair and a smaller matching bow around her neck. (While in her spell card during gameplay) 
+(Touhou 7) Same as above except her dress and shoes are dark red and she has a set of four fairy-like wings.</t>
+  </si>
+  <si>
+    <t>(Touhou 7.5) (While part of Alice's portrait during conversation, being defeated.) She has blond hair. She wears a long dark purple dress with a white apron and white shoulders, and matching dark purple shoes. There is a large red bow in her hair and a smaller matching bow around her neck. Very similar to Shanghai in the game, only her eyes aren't seen and her neck is hanged by a rope.</t>
+  </si>
+  <si>
+    <t>Short hair, possibly light blue, and possibly red eyes. (See Fun Facts.) White fluffy rabbit ears.  Wears a black business suit over her shirt, similar to Reisen Udongein Inaba, and a gray skirt.</t>
+  </si>
+  <si>
+    <t>Long, flowing, sandy blonde hair and golden eyes. Wears a dark blue dress with a strap on the left over a white long-sleeved blouse, a loose belt with a gold mirror-shaped buckle, and a white bonnet with a red ribbon on it when she goes outdoors.</t>
+  </si>
+  <si>
+    <t>Light blue hair tied into a ponytail with a yellow ribbon; brown eyes.  Wears a dark red dress with a strap on the right over a white short-sleeved blouse, and a loose belt with a gold sword-shaped buckle.</t>
+  </si>
+  <si>
+    <t>Red eyes, shoulder-length pink hair with Chinese-style double buns; her right arm is wrapped in ribbons, almost as if it's covered in bandages.  She wears a white shirt and a green skirt, over those a brown front panel that has a thorny vine motif and a large rose-shaped ornament just below collar level.  She also appears to have a shackle on her left wrist.</t>
+  </si>
+  <si>
+    <t>A young girl in a checkered kimono and apron with Kosuzu written on the front. She has red eyes, orange hair and twintails adorned with bells.</t>
+  </si>
+  <si>
+    <t>Relationships</t>
+  </si>
+  <si>
+    <t>Marisa Kirisame (Friend)
+Rinnosuke Morichika (Friend)
+Yukari Yakumo (Friend)
+Suika Ibuki (Houseguest/Moocher)
+Genjii (Familiar)
+Ruukoto (Maid)
+Mima (Taunter)
+Aya Shameimaru (Ally)
+Byakuren Hijiri (Business rival)
+Sanae Kochiya (related shrine maiden)
+Her shrine is often visited by most of the characters in the series.</t>
+  </si>
+  <si>
+    <t>Reimu Hakurei (Friend)
+Rinnosuke Morichika (Friend)
+Alice Margatroid (Neighbor/Friend)
+Mima (Former Master/Mentor?)
+Nitori Kawashiro (Ally)
+Patchouli Knowledge (Ally)
+Cirno (Adversary)
+Flandre Scarlet (Known)</t>
+  </si>
+  <si>
+    <t>Reimu Hakurei (?)</t>
+  </si>
+  <si>
+    <t>Shinki (Probable Creator)</t>
+  </si>
+  <si>
+    <t>Marisa Kirisame (Minion)
+Reimu Hakurei (Warden)</t>
+  </si>
+  <si>
+    <t>Reimu Hakurei (Owner)</t>
+  </si>
+  <si>
+    <t>Flower Tank (Tank)
+Evil Eye Sigma (Tank)</t>
+  </si>
+  <si>
+    <t>Sokrates (Pet cat)</t>
+  </si>
+  <si>
+    <t>Yumemi Okazaki (Senior)</t>
+  </si>
+  <si>
+    <t>Chiyuri Kitashirakawa (Assistant)
+Ruukoto (Former servant)</t>
+  </si>
+  <si>
+    <t>Reimu Hakurei (Master)
+Yumemi Okazaki (Former Master)</t>
+  </si>
+  <si>
+    <t>Yuuka Kazami (Mistress)</t>
+  </si>
+  <si>
+    <t>Elly (Gatekeeper)</t>
+  </si>
+  <si>
+    <t>Gengetsu (Older twin sister)</t>
+  </si>
+  <si>
+    <t>Mugetsu (Younger twin sister)</t>
+  </si>
+  <si>
+    <t>Marisa Kirisame (Neighbor/Friend)
+Shanghai (Doll)
+Hourai (Doll)
+Goliath Doll (Doll)
+Eirin Yagokoro (Known) 
+Shinki (Adoptive Mother?)</t>
+  </si>
+  <si>
+    <t>Mai (Fellow Witch and friend?)</t>
+  </si>
+  <si>
+    <t>Yuki (Fellow Witch)</t>
+  </si>
+  <si>
+    <t>Shinki (Mistress)</t>
+  </si>
+  <si>
+    <t>Yumeko (Maid)
+Alice Margatroid (Adoptive Daughter?)</t>
+  </si>
+  <si>
+    <t>Cirno (Known)
+Mystia Lorelei (Known)
+Wriggle Nightbug (Known)</t>
+  </si>
+  <si>
+    <t>Cirno (Friend)</t>
+  </si>
+  <si>
+    <t>Daiyousei (Known)
+Rumia (Known)
+Wriggle Nightbug (Known)
+Mystia Lorelei (Known)
+Sunny Milk (Friend)
+Luna Child (Friend)
+Star Sapphire (Friend)
+Letty Whiterock (Known)
+Reimu Hakurei (Known)
+Marisa Kirisame (Known)</t>
+  </si>
+  <si>
+    <t>Remilia Scarlet (Mistress)
+Sakuya Izayoi (Fellow Employee)
+Patchouli Knowledge (Mistress's friend)
+Flandre Scarlet (Mistress's little sister)
+Unnamed Giant Catfish (Undefeated enemy)
+Koakuma (Unknown)
+Taisui Xingjun (sworn enemy)</t>
+  </si>
+  <si>
+    <t>Patchouli Knowledge (Superior)
+Remilia Scarlet (Unknown)
+Sakuya Izayoi (Unknown)
+Flandre Scarlet (Unknown)
+Hong Meiling (Unknown)</t>
+  </si>
+  <si>
+    <t>Remilia Scarlet (Friend)
+Flandre Scarlet (Friend's sister)
+Sakuya Izayoi (Maid of Scarlet Devil Mansion)
+Hong Meiling (Scarlet Devil Mansion's gatekeeper)
+Koakuma (Assistant/Familiar?)
+Marisa Kirisame (Ally)</t>
+  </si>
+  <si>
+    <t>Remilia Scarlet (Mistress)
+Patchouli Knowledge (Mistress's friend)
+Flandre Scarlet (Mistress's younger sister)
+Hong Meiling (Fellow employee, Friend?)
+Eirin Yagokoro (Unknown)
+Koakuma (Unknown)</t>
+  </si>
+  <si>
+    <t>Flandre Scarlet (Younger sister)
+Patchouli Knowledge (Friend)
+Sakuya Izayoi (Chief maid)
+Hong Meiling (Gatekeeper)
+Koakuma (Unknown)</t>
+  </si>
+  <si>
+    <t>Remilia Scarlet (Older sister)
+Patchouli Knowledge (Sister's friend)
+Sakuya Izayoi (Chief maid)
+Hong Meiling (Gatekeeper)
+Koakuma (Unknown)
+Marisa Kirisame (Known)
+Reimu Hakurei (Known)</t>
+  </si>
+  <si>
+    <t>Reimu Hakurei (Unknown)
+Marisa Kirisame (Unknown)</t>
+  </si>
+  <si>
+    <t>Cirno (Known)</t>
+  </si>
+  <si>
+    <t>Ran Yakumo (Master)
+Yukari Yakumo (Master's master)</t>
+  </si>
+  <si>
+    <t>Lunasa (Oldest Sister)
+Merlin (Middle Sister)
+Lyrica (Youngest Sister)
+Yuyuko Saigyouji (Employer)
+Layla Prismriver (Creator)</t>
+  </si>
+  <si>
+    <t>Yuyuko Saigyouji (Mistress)
+Youki Konpaku (Predecessor, former teacher)</t>
+  </si>
+  <si>
+    <t>Youmu Konpaku (Gardener)
+Youki Konpaku (Former Gardener and Current Gardener's teacher)
+Yukari Yakumo (Friend)
+Lunasa, Lyrica, and Merlin Prismriver (Regular performers)
+Saigyou Ayakashi (Youkai Tree in her Garden)
+Mystia Lorelei (Enemy)</t>
+  </si>
+  <si>
+    <t>Chen (Shikigami)
+Yukari Yakumo (Master)
+Mamizou Futatsuiwa (Enemy)</t>
+  </si>
+  <si>
+    <t>Ran Yakumo (Shikigami)
+Chen (Ran's shikigami)
+Reimu Hakurei (Friend)
+Yuyuko Saigyouji (Friend)
+Suika Ibuki (Friend)
+Rinnosuke Morichika (Friend)
+Tenshi Hinanawi (Enemy)</t>
+  </si>
+  <si>
+    <t>Yuugi Hoshiguma (Fellow "Deva of the Mountain", Friend)
+Yukari Yakumo (Friend)
+Reimu Hakurei (Visitor)
+Tenshi Hinanawi (Neighbor)</t>
+  </si>
+  <si>
+    <t>Mystia Lorelei (Fellow Youkai)
+Cirno (Known)
+Rumia (Known)</t>
+  </si>
+  <si>
+    <t>Cirno (Known)
+Wriggle Nightbug (Known)
+Kyouko Kasodani (Friend)
+Yuyuko Saigyouji (Enemy)
+Iku Nagae (Enemy)</t>
+  </si>
+  <si>
+    <t>Fujiwara no Mokou (Friend)
+Hieda no Akyu (Unknown, Fellow Scholar?)
+Kaguya Houraisan (Indirect Recipient of Eternal Life)</t>
+  </si>
+  <si>
+    <t>Kaguya Houraisan (Ally/Employer)
+Eirin Yagokoro (Ally/Employer/Shishou)
+Reisen Udongein Inaba (Fellow Youkai Rabbit)</t>
+  </si>
+  <si>
+    <t>Kaguya Houraisan (Owner, Master)
+Eirin Yagokoro (Employer, Shishou)
+Tewi Inaba (Earthborn Rabbit)
+Watatsuki no Toyohime (Former Master)
+Watatsuki no Yorihime (Former Master)</t>
+  </si>
+  <si>
+    <t>Kaguya Houraisan (Fellow Exile, Mistress)
+Reisen Udongein Inaba (Apprentice)
+Tewi Inaba (Allied Earth Rabbit)
+Fujiwara no Mokou (Indirect Recipient of Eternal Life, Mistress' enemy)
+Sakuya Izayoi (Unknown)
+Watatsuki no Toyohime (Former Student, Distant Relative)
+Watatsuki no Yorihime (Former Student, Distant Relative)
+Alice Margatroid (Recurring Customer)</t>
+  </si>
+  <si>
+    <t>Eirin Yagokoro (Fellow Exile, Loyal Attendant)
+Reisen Udongein Inaba (Fellow Exile, Pet)
+Tewi Inaba (Allied Earth rabbit)
+Fujiwara no Mokou (Bitter enemy)</t>
+  </si>
+  <si>
+    <t>Kaguya Houraisan (Bitter enemy)
+Keine Kamishirasawa (Friend)</t>
+  </si>
+  <si>
+    <t>Momiji Inubashiri (Colleague)
+ Lord Tenma (Chief)
+Hatate Himekaidou (Rival, colleague)
+Reimu Hakurei (Ally)
+Minoriko Aki (Practice partner)
+ Has also interviewed most of the characters from TH06 to TH12 once or more.</t>
+  </si>
+  <si>
+    <t>Reimu Hakurei (Intruder)
+Marisa Kirisame (Intruder)</t>
+  </si>
+  <si>
+    <t>Shikieiki Yamaxanadu (Superior)
+Tenshi Hinanawi (Grudge)
+Kasen Ibara (Unknown, apparent acquaintances)</t>
+  </si>
+  <si>
+    <t>Komachi Onozuka (Subordinate)</t>
+  </si>
+  <si>
+    <t>Minoriko Aki (Younger Sister)</t>
+  </si>
+  <si>
+    <t>Shizuha Aki (Older Sister)
+Aya Shameimaru (Practice Partner)</t>
+  </si>
+  <si>
+    <t>Marisa Kirisame (Ally)</t>
+  </si>
+  <si>
+    <t>Aya Shameimaru (Colleague)
+Hatate Himekaidou (Colleague)
+Lord Tenma (Chief)</t>
+  </si>
+  <si>
+    <t>Kanako Yasaka (Moriya shrine's goddess)
+Suwako Moriya (Ancestor, Moriya shrine's true goddess)
+Kasen Ibara (Neighbor)
+Reimu Hakurei (Related shrine maiden)</t>
+  </si>
+  <si>
+    <t>Sanae Kochiya (Wind Priestess)
+Suwako Moriya (Fellow goddess)
+Utsuho Reiuji (Recipient of Nuclear Powers)</t>
+  </si>
+  <si>
+    <t>Kanako Yasaka (Fellow goddess)
+ Sanae Kochiya (Wind priestess, descendant)
+ Utsuho Reiuji (Unknown)
+ Mishaguji (Underlings)
+Cirno (Enemy)</t>
+  </si>
+  <si>
+    <t>Tenshi Hinanawi (Student)
+Mystia Lorelei (Enemy)</t>
+  </si>
+  <si>
+    <t>Suika Ibuki (Insider)
+Iku Nagae (Teacher)</t>
+  </si>
+  <si>
+    <t>Yamame Kurodani (Friend?)</t>
+  </si>
+  <si>
+    <t>Kisume (Friend?)</t>
+  </si>
+  <si>
+    <t>Suika Ibuki (Fellow "Deva of the Mountain", Friend)</t>
+  </si>
+  <si>
+    <t>Rin Kaenbyou (Pet)
+ Utsuho Reiuji (Pet)
+ Koishi Komeiji (Younger sister)
+ Hata no Kokoro (Sister's enemy)</t>
+  </si>
+  <si>
+    <t>Satori Komeiji (Master)
+ Utsuho Reiuji (Friend, Fellow Pet)
+ Koishi Komeiji (Master's younger sister)</t>
+  </si>
+  <si>
+    <t>Satori Komeiji (Master)
+ Rin Kaenbyou (Friend, Fellow Pet)
+ Koishi Komeiji (Master's younger sister)
+ Kanako Yasaka (Giver of Nuclear Powers)
+ Suwako Moriya (Unknown)</t>
+  </si>
+  <si>
+    <t>Satori Komeiji (Older Sister)
+Rin Kaenbyou (Sister's Pet)  
+Utsuho Reiuji (Sister's Pet)
+Hata no Kokoro (Enemy)</t>
+  </si>
+  <si>
+    <t>Shou Toramaru (Watcher)
+ Minamitsu Murasa (Captain)
+ Ichirin Kumoi (Ally)
+Bishamonten (God)</t>
+  </si>
+  <si>
+    <t>Nue Houjuu (Ally)</t>
+  </si>
+  <si>
+    <t>Unzan (Familiar)
+ Byakuren Hijiri (Mistress) 
+ Minamitsu Murasa (Captain)
+ Shou Toramaru (Allied youkai)
+ Nazrin (Allied youkai)</t>
+  </si>
+  <si>
+    <t>Byakuren Hijiri (Savior)
+ Shou Toramaru (Member of her group of youkai)
+ Ichirin Kumoi (Member of her group of youkai)
+ Nazrin (Member of her group of youkai)
+ Nue Houjuu (Unknown)</t>
+  </si>
+  <si>
+    <t>Nazrin (Underling)
+ Byakuren Hijiri (Helper)
+ Minamitsu Murasa (Captain)
+ Ichirin Kumoi (Ally)
+ Bishamonten (God)</t>
+  </si>
+  <si>
+    <t>Ichirin Kumoi (Loyal attendant)
+Minamitsu Murasa  (Saved youkai)
+Shou Toramaru  (Follower)
+Myouren Hijiri (Younger brother, deceased)
+Nue Houjuu (Currently living at her temple)
+Mamizou Futatsuiwa (Currently living at her temple)
+Toyosatomimi no Miko (Enemy)
+Kyouko Kasodani (Employee)
+Reimu Hakurei (Business rival)
+Koishi Komeiji (Laywoman)</t>
+  </si>
+  <si>
+    <t>Byakuren Hijiri (Currently lives at her temple) 
+Minamitsu Murasa (Unknown, but appears to have known her before Undefined Fantastic Object)
+Mamizou Futatsuiwa (Friend) 
+Kogasa Tatara (Ally)</t>
+  </si>
+  <si>
+    <t>Hong Meiling (Obstacle)</t>
+  </si>
+  <si>
+    <t>Aya Shameimaru (Rival, colleague)
+Momiji Inubashiri (Colleague)
+Lord Tenma (Chief)</t>
+  </si>
+  <si>
+    <t>Sunny Milk (Leader)
+Luna Child (Partner)
+Star Sapphire (Partner)
+Cirno (Friend)</t>
+  </si>
+  <si>
+    <t>Byakuren Hijiri (Master)
+Mystia Lorelei (Friend)</t>
+  </si>
+  <si>
+    <t>Seiga Kaku (Master)</t>
+  </si>
+  <si>
+    <t>Toyosatomimi no Miko (Ally)
+Mononobe no Futo (Ally) 
+Soga no Tojiko (Ally) 
+Yoshika Miyako (Servant)</t>
+  </si>
+  <si>
+    <t>Toyosatomimi no Miko (Ally) 
+Mononobe no Futo (Ally) 
+Seiga Kaku (Ally)</t>
+  </si>
+  <si>
+    <t>Toyosatomimi no Miko (Ally) 
+Soga no Tojiko (Ally) 
+Seiga Kaku (Ally)</t>
+  </si>
+  <si>
+    <t>Mononobe no Futo (Ally) 
+Soga no Tojiko (Ally) 
+Seiga Kaku (Ally)
+Byakuren Hijiri (Target)
+Hata no Kokoro (Creation)</t>
+  </si>
+  <si>
+    <t>Nue Houjuu (Friend)
+Byakuren Hijiri (Currently lives at her temple)
+Ran Yakumo (Enemy)
+Kosuzu Motoori (Admirer)
+Hata no Kokoro (Known)</t>
+  </si>
+  <si>
+    <t>Toyosatomimi no Miko (Creator)
+Mamizou Futatsuiwa (Known)
+Koishi Komeiji (Enemy)
+Satori Komeiji (Enemy's sister)</t>
+  </si>
+  <si>
+    <t>Kagerou Imaizumi (Known)</t>
+  </si>
+  <si>
+    <t>Wakasagihime (Known)</t>
+  </si>
+  <si>
+    <t>Yatsuhashi Tsukumo (Younger Sıster)
+Raiko Horikawa (Known)
+Seija Kijin (Known)
+Shinmyoumaru Sukuna (Known)</t>
+  </si>
+  <si>
+    <t>Benben Tsukumo (Older Sister)
+Raiko Horikawa (Unknown)</t>
+  </si>
+  <si>
+    <t>Shinmyoumaru Sukuna (Ally)</t>
+  </si>
+  <si>
+    <t>Yatsunashi Tsukumo (Unknown) 
+Benben Tsukumo (Unknown)
+Seija Kijin (Unknown)</t>
+  </si>
+  <si>
+    <t>Benben Tsukumo (Known)
+ Yatsuhashi Tsukumo (Known)</t>
+  </si>
+  <si>
+    <t>Reimu Hakurei (Shoplifter)
+Marisa Kirisame (Daughter of a former employer &amp; shoplifter)
+Sakuya Izayoi (Regular customer, even if it's not very often)
+Yukari Yakumo (Merchandise supplier)
+Tokiko (Unknown)</t>
+  </si>
+  <si>
+    <t>Rinnosuke Morichika (Unknown)</t>
+  </si>
+  <si>
+    <t>Maribel Han (Friend)</t>
+  </si>
+  <si>
+    <t>Renko Usami (Friend)</t>
+  </si>
+  <si>
+    <t>Keine Kamishirasawa (Unknown, Fellow scholar?)
+ Yukari Yakumo (Acquaintance from previous life?)
+ Reimu Hakurei (Unknown)
+ Kosuzu Motoori (Friend)</t>
+  </si>
+  <si>
+    <t>Alice Margatroid (Puppeteer)
+Hourai (Fellow Doll)</t>
+  </si>
+  <si>
+    <t>Alice Margatroid (Puppeteer)
+Shanghai (Fellow Doll)</t>
+  </si>
+  <si>
+    <t>Watatsuki no Yorihime (Owner)
+Watatsuki no Toyohime (Owner)
+Reisen Udongein Inaba (Namesake)</t>
+  </si>
+  <si>
+    <t>Watatsuki no Yorihime (Younger sister)
+Eirin Yagokoro (Former teacher, distant relative)
+Reisen Udongein Inaba (Former pet)
+Reisen (Pet)</t>
+  </si>
+  <si>
+    <t>Watatsuki no Toyohime (Older sister)
+Eirin Yagokoro (Former teacher, distant relative)
+Reisen Udongein Inaba (Former pet)
+Reisen (Pet)</t>
+  </si>
+  <si>
+    <t>Reimu Hakurei (Unknown)
+Sanae Kochiya (Neighbor)
+Komachi Onozuka (Unknown, apparent acquaintances)
+Marisa Kirisame (Unknown)
+Suika Ibuki (Unknown)</t>
+  </si>
+  <si>
+    <t>Hieda no Akyu (Friend)
+Reimu Hakurei (Friend)
+Marisa Kirisame (Friend)
+Mamizou Futatsuiwa (Costumer)</t>
+  </si>
+  <si>
+    <t>Appearances</t>
+  </si>
+  <si>
+    <t>Highly Responsive to Prayers (Playable Character)
+Story of Eastern Wonderland (Playable Character)
+Phantasmagoria of Dim.Dream (Playable Character, Possible Opponent)
+Lotus Land Story (Playable Character, Stage 4A Boss)
+Mystic Square (Playable Character)
+Shuusou Gyoku (Extra Boss 2)
+Embodiment of Scarlet Devil (Playable Character)
+Perfect Cherry Blossom (Playable Character)
+Immaterial and Missing Power (Playable Character, Possible Opponent)
+Imperishable Night (Playable Character, Stage 4A Midboss, Stage 4A Boss)
+Phantasmagoria of Flower View (Playable Character, Possible Opponent)
+Mountain of Faith (Playable Character)
+Scarlet Weather Rhapsody (Playable Character, Possible Opponent)
+Subterranean Animism (Playable Character)
+Graffiti Kingdom (Cameo) (Playable Character)
+Undefined Fantastic Object (Playable Character)
+Touhou Hisoutensoku standalone (Playable Character)
+Double Spoiler (Scene EX-1, EX-4, EX-7 Boss)
+Fairy Wars (Route B1 Ending)
+Ten Desires (Playable Character)
+Hopeless Masquerade (Playable Character, Possible Opponent)
+Double Dealing Character (Playable Character)
+Impossible Spell Card (Day 8-2, 8-5 Boss)</t>
+  </si>
+  <si>
+    <t>Story of Eastern Wonderland (Stage 4 Boss)
+Phantasmagoria of Dim.Dream (Playable Character, Possible Opponent)
+Lotus Land Story (Playable Character, Stage 4 Boss)
+Mystic Square (Playable Character)
+Shuusou Gyoku (Extra Boss 1)
+Embodiment of Scarlet Devil (Playable Character)
+Perfect Cherry Blossom (Playable Character)
+Immaterial and Missing Power (Playable Character, Possible Opponent)
+Imperishable Night (Playable Character, Stage 4B Midboss, Stage 4B Boss)
+Phantasmagoria of Flower View (Playable Character, Possible Opponent)
+Mountain of Faith (Playable Character)
+Scarlet Weather Rhapsody (Playable Character, Possible Opponent)
+Subterranean Animism (Playable Character)
+Undefined Fantastic Object (Playable Character)
+Unthinkable Natural Law (Playable Character)
+The Grimoire of Marisa (Main Character)
+Double Spoiler (Scene EX-2, EX-5, EX-8 Boss)
+Fairy Wars (Extra Boss)
+Ten Desires (Playable Character)
+Hopeless Masquerade (Playable Character, Possible Opponent)
+Double Dealing Character (Playable Character)
+Impossible Spell Card (Day 7-1, 7-5 Boss)</t>
+  </si>
+  <si>
+    <t>Highly Responsive to Prayers (Stage 5 Boss)</t>
+  </si>
+  <si>
+    <t>Highly Responsive to Prayers (Makai Route Stage 10 Boss)</t>
+  </si>
+  <si>
+    <t>Highly Responsive to Prayers (Jigoku Route Stage 10 Boss)
+Story of Eastern Wonderland (Final Boss)
+Phantasmagoria of Dim.Dream (Playable Character, Possible Opponent)
+Mystic Square (Playable Character)
+(Music CDs)
+幺樂団の歴史４ ～ Akyu's Untouched Score vol.4 - CD cover</t>
+  </si>
+  <si>
+    <t>Highly Responsive to Prayers (Makai Route Stage 15 Boss)</t>
+  </si>
+  <si>
+    <t>Highly Responsive to Prayers (Jigoku Route Stage 15 Boss)</t>
+  </si>
+  <si>
+    <t>Highly Responsive to Prayers (Jigoku Route Final Boss)</t>
+  </si>
+  <si>
+    <t>Highly Responsive to Prayers (Makai Route Final Boss)</t>
+  </si>
+  <si>
+    <t>Story of Eastern Wonderland (Reimu's flying aid)
+Phantasmagoria of Dim.Dream (Reimu's flying aid)
+Lotus Land Story (Reimu's flying aid)
+Mystic Square (Reimu's flying aid)</t>
+  </si>
+  <si>
+    <t>Story of Eastern Wonderland (Stage 1 Boss, Extra Stage Boss)</t>
+  </si>
+  <si>
+    <t>Story of Eastern Wonderland (Stage 2 Boss)</t>
+  </si>
+  <si>
+    <t>Phantasmagoria of Dim.Dream (Playable Character, Possible Opponent)</t>
+  </si>
+  <si>
+    <t>Phantasmagoria of Dim.Dream (Playable Character, Stage 8 Boss)</t>
+  </si>
+  <si>
+    <t>Phantasmagoria of Dim.Dream (Playable Character, Final Boss)</t>
+  </si>
+  <si>
+    <t>Phantasmagoria of Dim.Dream (Non-playable Character)</t>
+  </si>
+  <si>
+    <t>Lotus Land Story (Stage 1 Boss)</t>
+  </si>
+  <si>
+    <t>Lotus Land Story (Stage 2 Midboss, Stage 2 Boss)</t>
+  </si>
+  <si>
+    <t>Lotus Land Story (Stage 3 Boss)</t>
+  </si>
+  <si>
+    <t>Lotus Land Story (Stage 5 Boss, Final Boss)
+Mystic Square (Playable Character)
+Kioh Gyoku (Playable Character, Possible Opponent)
+Phantasmagoria of Flower View (Playable Character, Possible Opponent)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Lotus Land Story (Extra Stage Boss A)</t>
+  </si>
+  <si>
+    <t>Lotus Land Story (Extra Stage Boss B)</t>
+  </si>
+  <si>
+    <t>Mystic Square (Stage 1 Boss)</t>
+  </si>
+  <si>
+    <t>Mystic Square (Stage 2 Boss, Stage 4 Midboss)</t>
+  </si>
+  <si>
+    <t>Mystic Square (Stage 3 Boss, Extra Boss)
+Perfect Cherry Blossom (Stage 3 Midboss, Stage 3 Boss)
+Immaterial and Missing Power (Playable Character, Possible Opponent)
+Imperishable Night (Playable Character)
+Shoot the Bullet (Stage 3-1, 3-3, 3-5, 3-7  Boss)
+Scarlet Weather Rhapsody (Playable Character, Possible Opponent)
+Subterranean Animism (Playable Partner)
+Unthinkable Natural Law (Playable Character, Possible Opponent)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Mystic Square (Stage 4 Boss A)
+Samidare (Extra Stage Midboss)</t>
+  </si>
+  <si>
+    <t>Mystic Square (Stage 4 Boss B)
+Samidare (Extra Stage Midboss)</t>
+  </si>
+  <si>
+    <t>Mystic Square (Stage 5 Boss)</t>
+  </si>
+  <si>
+    <t>Mystic Square (Final Boss)</t>
+  </si>
+  <si>
+    <t>Embodiment of Scarlet Devil (Stage 1 Midboss, Stage 1 Boss)
+Shoot the Bullet (Stage 1-2, 1-4, 1-6 Boss)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Embodiment of Scarlet Devil (Stage 2 Midboss)
+Fairy Wars (Misty Lake Midboss, Extra Stage Midboss)</t>
+  </si>
+  <si>
+    <t>Embodiment of Scarlet Devil (Stage 2 Boss)
+Perfect Cherry Blossom (Stage 1 Midboss)
+Phantasmagoria of Flower View (Playable character, possible opponent)
+Shoot the Bullet (Stage 2-1, 2-3, 2-5 Boss)
+Unthinkable Natural Law (Playable character, possible opponent)
+Fairy Wars (Main Character)
+Hopeless Masquerade (Background Character)
+Double Dealing Character (Stage 1 midboss)
+Impossible Spell Card (Day 1-3, 1-5 Boss)</t>
+  </si>
+  <si>
+    <t>Embodiment of Scarlet Devil (Stage 3 Midboss, Stage 3 Boss)
+Immaterial and Missing Power (Playable Character)
+Unthinkable Natural Law (Playable Character)</t>
+  </si>
+  <si>
+    <t>Embodiment of Scarlet Devil (Stage 4 Midboss)</t>
+  </si>
+  <si>
+    <t>Embodiment of Scarlet Devil (Stage 4 Boss, Extra Midboss)
+Perfect Cherry Blossom (Ending No. 8)
+Immaterial and Missing Power (Playable Character, Possible Opponent)
+Imperishable Night (Ending No. 3)
+Phantasmagoria of Flower View (Ending No. 3)
+Shoot the Bullet (Stage 5-2, 5-4, 5-6, 5-8 Boss)
+Scarlet Weather Rhapsody (Playable Character, Possible Opponent)
+Subterranean Animism (Playable Partner)
+Unthinkable Natural Law (Playable Character, Possible Opponent)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Embodiment of Scarlet Devil (Stage 5 Midboss, Stage 5 Boss, Final Stage Midboss)
+Perfect Cherry Blossom (Playable Character)
+Immaterial and Missing Power (Playable Character, Possible Opponent)
+Imperishable Night (Playable Character)
+Phantasmagoria of Flower View (Playable Character, Possible Opponent)
+Shoot the Bullet (Stage 7-1, 7-3, 7-5, 7-7 Boss)
+Scarlet Weather Rhapsody (Playable Character, Possible Opponent)
+Unthinkable Natural Law (Hong Meiling Ending, Playable character in arcade mode)
+Hopeless Masquerade (Background character)
+Double Dealing Character (Playable Character)
+Impossible Spell Card (Day 7-2, 7-6 Boss)</t>
+  </si>
+  <si>
+    <t>Embodiment of Scarlet Devil (Final Boss)
+Perfect Cherry Blossom (Ending No. 3,4,8,9)
+Immaterial and Missing Power (Playable Character, Possible Opponent)
+Imperishable Night (Playable Character)
+Phantasmagoria of Flower View (Ending No. 3)
+Shoot the Bullet (Stage 7-2, 7-4, 7-6, 7-8 Boss)
+Mountain of Faith (Ending No. 2(Cameo))
+Scarlet Weather Rhapsody (Playable Character, Possible Opponent)
+Unthinkable Natural Law (Playable character in arcade mode)
+Hopeless Masquerade (Background Character)
+Double Dealing Character (Ending no. 5)
+Impossible Spell Card (Day 10-4, 10-9 Boss)</t>
+  </si>
+  <si>
+    <t>Embodiment of Scarlet Devil (Extra Boss)
+Shoot the Bullet (Extra Stage 1 and 2 Boss)
+Inaba of the Moon and Inaba of the Earth (A silhouette is seen in Chapter 9)</t>
+  </si>
+  <si>
+    <t>Embodiment of Scarlet Devil</t>
+  </si>
+  <si>
+    <t>Perfect Cherry Blossom (Stage 1 Boss)
+Shoot the Bullet (Stage 2-2, 2-4, 2-6 Boss)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Perfect Cherry Blossom (Stage 2 Midboss, Stage 2 Boss, Extra Midboss)
+Immaterial and Missing Power (Yukari's Spell Card attack)
+Imperishable Night (Ending No. 1, Normal Ending No. 5)
+Shoot the Bullet (Stage 6-1, 6-3, 6-5, 6-7 Boss)
+Scarlet Weather Rhapsody (Yukari's Spell Card attack)
+Unthinkable Natural Law (Yukari's spell card attack)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Perfect Cherry Blossom (Stage 4 Midboss)
+Phantasmagoria of Flower View (Special enemy)
+Strange and Bright Nature Deity
+Fairy Wars (Midboss)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Perfect Cherry Blossom (Stage 4 Bosses)
+Phantasmagoria of Flower View (Playable Characters, Possible Opponents)
+Hopeless Masquerade (Background Characters)</t>
+  </si>
+  <si>
+    <t>Perfect Cherry Blossom (Stage 5 Midboss, Stage 5 Boss, Stage 6 Midboss)
+Immaterial and Missing Power (Playable Character, Possible Opponent)
+Imperishable Night (Playable Character)
+Phantasmagoria of Flower View (Playable Character, Possible Opponent)
+Shoot the Bullet (Stage 6-2, 6-4, 6-6, 6-8 Boss)
+Scarlet Weather Rhapsody (Playable Character, Possible Opponent)
+Unthinkable Natural Law (Playable character in arcade mode)
+Ten Desires (Playable Character)
+Hopeless Masquerade (Background Character)
+Impossible Spell Card (Day 7-3, 7-7 Boss)</t>
+  </si>
+  <si>
+    <t>Perfect Cherry Blossom (Final Boss)
+Immaterial and Missing Power (Playable Character, Possible Opponent)
+Imperishable Night (Playable Character)
+Phantasmagoria of Flower View (Ending No. 4)
+Shoot the Bullet (Stage 8-2, 8-4, 8-6, 8-8 Boss)
+Scarlet Weather Rhapsody (Playable Character, Possible Opponent)
+Unthinkable Natural Law (playable character in arcade mode)
+Ten Desires (Stage 1 Boss)
+Hopeless Masquerade (Background Character)
+Impossible Spell Card (Day 4-1, 4-3, 4-6 Boss)</t>
+  </si>
+  <si>
+    <t>Perfect Cherry Blossom (Extra Boss, Phantasm Midboss)
+Immaterial and Missing Power (Yukari's Spell Card attack)
+Imperishable Night (Yukari's Familiar, Ending No. 1,4)
+Shoot the Bullet (Stage 8-1, 8-3, 8-5, 8-7 Boss)
+Scarlet Weather Rhapsody (Yukari's Spell Card attack)
+Unthinkable Natural Law (Yukari's Spell Card Attack)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Perfect Cherry Blossom (Phantasm Boss)
+Immaterial and Missing Power (Playable Character, Stage 6 Boss)
+Imperishable Night (Playable Character, Last Word Boss)
+Shoot the Bullet (Extra Stage 3 and 4 Boss)
+Scarlet Weather Rhapsody (Playable Character, Possible Opponent)
+Subterranean Animism (Playable Partner)
+Unthinkable Natural Law (Playable Character in Arcade Mode)
+Hopeless Masquerade (Background Character)
+Impossible Spell Card (Day 10-5, 10-10 Boss)</t>
+  </si>
+  <si>
+    <t>Immaterial and Missing Power (Final boss, playable character in arcade mode)
+Shoot the Bullet (Extra stage 7 and 8 boss)
+Scarlet Weather Rhapsody (Playable character)
+Subterranean Animism (Playable Partner)
+Unthinkable Natural Law (Playable Character in Arcade and VS Mode)
+Double Spoiler (Scene 6-2, 6-4, 6-6, 6,8)
+Hopeless Masquerade (Background Character)
+Impossible Spell Card (Day 9-4, 9-8 Boss)</t>
+  </si>
+  <si>
+    <t>Imperishable Night (Stage 1 Midboss, Stage 1 Boss)
+Shoot the Bullet (Stage 1-1, 1-3, 1-5 Boss)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Imperishable Night (Stage 2 Midboss, Stage 2 Boss)
+Phantasmagoria of Flower View (Playable Character, Possible Opponent)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Imperishable Night  (Stage 3 Midboss, Stage 3 Boss (human form) , Extra Midboss(Hakutaku Form))
+Shoot the Bullet (Stage 3-2, 3-4, 3-6, 3-8 Boss)
+Hopeless Masquerade (Background Character)
+Impossible Spell Card (Day 3-3, 3-6 Boss)</t>
+  </si>
+  <si>
+    <t>Imperishable Night (Stage 5 Midboss)
+Phantasmagoria of Flower View (Playable Character, Possible Opponent)
+Shoot the Bullet (Stage 4-3 and 4-8  Boss)
+Inaba of the Moon and Inaba of the Earth (Main Character)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Imperishable Night (Stage 5 Boss)
+Phantasmagoria of Flower View (Playable Character, Possible Opponent)
+Shoot the Bullet (Stage 4-1, 4-4, 4-6, 4-9 Boss)
+Scarlet Weather Rhapsody (Playable Character, Possible Opponent)
+Inaba of the Moon and Inaba of the Earth (Main Character)
+Unthinkable Natural Law (Playable character in Arcade and VS Mode)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Imperishable Night (Final Midboss A, Final Boss A, Final Midboss B)
+Phantasmagoria of Flower View (Ending No. 5, 9, 12)
+Shoot the Bullet (Stage 9-1, 9-3, 9-5, 9-7 Boss)
+Scarlet Weather Rhapsody (Reisen's Ending)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Imperishable Night (Final Boss B)
+Shoot the Bullet (Stage 9-2, 9-4, 9-6, 9-8 Boss)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Imperishable Night (Extra Boss)
+Shoot the Bullet (Extra Stage 5 and 6 Boss)
+Hopeless Masquerade (Background Character)
+Impossible Spell Card (Day 3-4, 3-7 Boss)</t>
+  </si>
+  <si>
+    <t>Bohemian Archive in Japanese Red (Main Character)
+Perfect Memento in Strict Sense (Encyclopedia's pages 89-91)
+Phantasmagoria of Flower View (Playable Character, Possible Opponent)
+Shoot the Bullet (Main Character)
+Mountain of Faith (Stage 4 Boss)
+Scarlet Weather Rhapsody (Playable Character, Possible Opponent)
+Subterranean Animism (Playable Partner)
+Unthinkable Natural Law (Playable character in Arcade and VS Mode)
+Double Spoiler (Main Character, Spoiler Boss)
+Fairy Wars (Route C1 ending)
+Hopeless Masquerade (Background Character)
+Impossible Spell Card (Day 6-2, 6-8 Boss)</t>
+  </si>
+  <si>
+    <t>Phantasmagoria of Flower View (Playable Character, Possible Opponent)
+Shoot the Bullet (Stage 4-2, 4-5, 4-7 Boss)
+Hopeless Masquerade (Background character)</t>
+  </si>
+  <si>
+    <t>Phantasmagoria of Flower View (Playable Character, Possible Opponent)
+Shoot the Bullet (Stage 10-1, 10-3, 10-5, 10-7 Boss)
+Scarlet Weather Rhapsody (Playable Character, Possible Opponent)
+Unthinkable Natural Law (Playable Character in Arcade Mode)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Phantasmagoria of Flower View (Playable Character, Final Boss)
+Shoot the Bullet (Stage 10-2, 10-4, 10-6, 10-8 Boss)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Mountain of Faith (Stage 1 mid-boss)
+Double Spoiler (Scene 1-3, 1-5 Boss)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Mountain of Faith (Stage 1 Boss)
+Double Spoiler (Scene 1-1, 1-2, 1-4, 1-6 Boss)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Mountain of Faith (Stage 2 Midboss, Stage 2 Boss)
+Double Spoiler (Scene 2-2, 2-4, 2-6 Boss)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Mountain of Faith (Stage 3 Midboss, Stage 3 Boss)
+Subterranean Animism (Playable Partner)
+Double Spoiler (Scene 4-1, 4-3, 4-5, 4-7 Boss)
+Hopeless Masquerade (Playable Character, Possible Opponent)</t>
+  </si>
+  <si>
+    <t>Mountain of Faith (Stage 4 midboss)
+Double Spoiler (Scene 4-2, 4-4, 4-6 Boss)
+Impossible Spell Card (Day 6-5 Boss)</t>
+  </si>
+  <si>
+    <t>Mountain of Faith (Stage 5 Midboss, Stage 5 Boss)
+Subterranean Animism (Extra Stage Midboss)
+Undefined Fantastic Object (Playable Character)
+Unthinkable Natural Law (Playable Character, Possible Opponent)
+Double Spoiler (Scene EX-3, EX-6, EX-9 Boss)
+Ten Desires (Playable Character)
+Hopeless Masquerade (Background Character)
+Impossible Spell Card (Day 7-4, 7-8 Boss)</t>
+  </si>
+  <si>
+    <t>Mountain of Faith (Final Stage Boss, Extra Midboss)
+Subterranean Animism (Backstory)
+Undefined Fantastic Object (Cameo)
+Unthinkable Natural Law (Sanae's Spell Card attack, Sanae's Ending)
+Double Spoiler (Scene 11-1, 11-3, 11-5, 11-7 Boss)
+Hopeless Masquerade (Background Character)
+Impossible Spell Card (Day 9-1, 9-5 Boss)</t>
+  </si>
+  <si>
+    <t>Mountain of Faith (Extra Boss)
+Subterranean Animism (Cameo)
+Undefined Fantastic Object (SanaeB ending)
+Unthinkable Natural Law (Playable Character, Possible Opponent, Sanae's Spell Card attack)
+Double Spoiler (Scene 11-2, 11-4, 11-6, 11-8 Boss)
+Hopeless Masquerade (Background Character)
+Impossible Spell Card (Day 9-2, 9-6 Boss)</t>
+  </si>
+  <si>
+    <t>Scarlet Weather Rhapsody (Playable Character, Possible Opponent)
+Unthinkable Natural Law (Playable Character in Arcade Mode)
+Double Spoiler (Scene 10-2, 10-4, 10-6, 10-8 Boss)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Scarlet Weather Rhapsody (Playable Character, Possible Opponent)
+Unthinkable Natural Law (Playable Character in Arcade Mode)
+Double Spoiler (Scene 10-1, 10-3, 10-5, 10-7 Boss)
+Hopeless Masquerade (Background Character)
+Impossible Spell Card (Day 10-3, 10-8 Boss)</t>
+  </si>
+  <si>
+    <t>Subterranean Animism(Stage 1 Mid-boss)
+ Double Spoiler (Scene 3-3, 3-6 Boss)</t>
+  </si>
+  <si>
+    <t>Subterranean Animism (Stage 1 Boss)
+Double Spoiler (Scene 3-1, 3-4, 3-7 Boss)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Subterranean Animism (Stage 2 Midboss, Stage 2 Boss)
+ Double Spoiler (Scene 2-1, 2-3, 2-5 Boss)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Subterranean Animism (Stage 3 Midboss, Stage 3 Boss)
+Double Spoiler (Scene 6-1, 6-3, 6-5, 6-7 Boss)
+Hopeless Masquerade (Background character)</t>
+  </si>
+  <si>
+    <t>Subterranean Animism (Stage 4 boss)
+ Double Spoiler (Scene 9-1, 9-3, 9-5, 9-7 Boss)
+ Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Subterranean Animism (Stage 4 Midboss, Stage 5 Midboss, Stage 5 Boss, Stage 6 Midboss)
+ Double Spoiler (Level 8-1, 8-3, 8-5, 8-7 Boss)
+ Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Subterranean Animism (Final boss)
+Undefined Fantastic Object (Backstory)
+Unthinkable Natural Law (Playable character, possible opponent)
+Double Spoiler (Scene 8-2, 8-4, 8-6, 8-8 Boss)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Subterranean Animism (Extra Stage Boss)
+ Double Spoiler (Scene 9-2, 9-4, 9-6, 9-8 Boss)
+ Hopeless Masquerade (Playable Character, Possible Opponent)</t>
+  </si>
+  <si>
+    <t>Undefined Fantastic Object (Stage 1 Midboss, Stage 1 Boss, Stage 5 Midboss)
+ Double Spoiler (Scene 7-2, 7-4, 7-6 Boss)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Undefined Fantastic Object (Stage 2 Midboss, Stage 2 Boss, Extra Stage Midboss)
+Double Spoiler (Scene 3-2, 3-5, 3-8 Boss)
+Ten Desires (Stage 3 midboss)
+Hopeless Masquerade (Background character)</t>
+  </si>
+  <si>
+    <t>Undefined Fantastic Object (Stage 3 Midboss, Stage 3 Boss)
+ Double Spoiler (Scene 5-1, 5-3, 5-5, 5-7 Boss)
+Hopeless Masquerade Playable Character, Possible Opponent</t>
+  </si>
+  <si>
+    <t>Undefined Fantastic Object (Stage 4 Boss)
+ Double Spoiler (Scene 5-2, 5-4, 5-6, 5-8 Boss)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Undefined Fantastic Object (Stage 5 Boss)
+ Double Spoiler (Scene 7-1, 7-3, 7-5, 7-7 Boss)
+ Hopeless Masquerade (Background character)</t>
+  </si>
+  <si>
+    <t>Undefined Fantastic Object (Final Boss)
+ Double Spoiler (Scene 12-1, 12-3, 12-5, 12-7 Boss)
+ Ten Desires (Backstory)
+ Hopeless Masquerade (Playable character, opponent)
+Impossible Spell Card (Day 10-1, 10-6 Boss)</t>
+  </si>
+  <si>
+    <t>Undefined Fantastic Object (Stage 4 Midboss, Stage 6 Midboss, Extra Stage Boss)
+Double Spoiler (Stage 12-2, 12-4, 12-6, 12-8 Boss)
+Ten Desires (Extra Stage Midboss)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Unthinkable Natural Law (Boss Character)</t>
+  </si>
+  <si>
+    <t>Double Spoiler (Playable Character, Level Spoiler Boss)
+Hopeless Masquerade (Background Character)
+Impossible Spell Card (Day 6-3, 6-7 Boss)</t>
+  </si>
+  <si>
+    <t>Eastern and Little Nature Deity (Main Characters)
+Strange and Bright Nature Deity (Main Characters)
+Oriental Sacred Place (Main Characters)
+Fairy Wars (Bosses)
+Hopeless Masquerade (Background Characters)</t>
+  </si>
+  <si>
+    <t>Ten Desires (Stage 2 midboss, Stage 2 Boss)
+Hopeless Masquerade (Background character)
+Impossible Spell Card (Day 2-1, 2-3, 2-5 Boss)</t>
+  </si>
+  <si>
+    <t>Ten Desires (Stage 3 Boss, Stage 4 supporting boss)
+Hopeless Masquerade (Background Character)
+Impossible Spell Card (Day 4-2, 4-4 Boss)</t>
+  </si>
+  <si>
+    <t>Ten Desires (Stage 4 Boss)
+Hopeless Masquerade (Background Character)
+Impossible Spell Card (Day 4-2, 4-5, 4-7 Boss)</t>
+  </si>
+  <si>
+    <t>Ten Desires (Stage 5 Midboss) 
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Ten Desires (Stage 5 Boss, Stage 6 Boss in 3v1 fight) 
+Hopeless Masquerade (Playable Character, Possible Opponent)
+Impossible Spell Card (Day 9-3, 9-7 Boss)</t>
+  </si>
+  <si>
+    <t>Ten Desires (Final Boss)
+Hopeless Masquerade (Playable Character, Possible Opponent)
+Impossible Spell Card (Day 10-2, 10-7 Boss)</t>
+  </si>
+  <si>
+    <t>Ten Desires (Extra Stage Boss)
+Hopeless Masquerade (Playable character, Semifinal Boss)
+Impossible Spell Card (Day 6-1, 8-3, 8-6 Boss)</t>
+  </si>
+  <si>
+    <t>Hopeless Masquerade (Playable Character, Final Boss)</t>
+  </si>
+  <si>
+    <t>Double Dealing Character (Stage 1 Boss)
+Impossible Spell Card (Day 1-2, 1-4, 1-6 Boss)</t>
+  </si>
+  <si>
+    <t>Double Dealing Character (Stage 2 Midboss, Boss)
+Impossible Spell Card (Day 2-2, 2-4, 2-6 Boss)</t>
+  </si>
+  <si>
+    <t>Double Dealing Character (Stage 3 Midboss, Boss)
+Impossible Spell Card (Day 3-1, 3-2, 3-5 Boss)</t>
+  </si>
+  <si>
+    <t>Double Dealing Character (Stage 4 Boss or Midboss, Extra Stage Midboss)
+Impossible Spell Card (Day 5-3, 5-6, 5-8 Boss)</t>
+  </si>
+  <si>
+    <t>Double Dealing Character (Stage 4 Boss or Midboss, Extra Stage Midboss)
+Impossible Spell Card (Day 1-1, 5-2, 5-5, 5-8 boss)</t>
+  </si>
+  <si>
+    <t>Double Dealing Character (Stage 5 Midboss, Stage 5 Boss, Stage 6 Midboss)
+Impossible Spell Card (Playable Character)</t>
+  </si>
+  <si>
+    <t>Double Dealing Character (Final Stage Boss)
+Impossible Spell Card (Day 8-1, 8-4, 8-7 Boss)</t>
+  </si>
+  <si>
+    <t>Double Dealing Character (Extra Boss)
+Impossible Spell Card (Day 5-1, 5-4, 5-7 Boss)</t>
+  </si>
+  <si>
+    <t>Curiosities of Lotus Asia (Main Character)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Curiosities of Lotus Asia (Unknown)</t>
+  </si>
+  <si>
+    <t>(Music CDs)
+蓮台野夜行 ～ Ghostly Field Club
+夢違科学世紀 ～ Changeability of Strange Dream
+卯酉東海道 ～ Retrospective 53 minutes
+大空魔術 ～ Magical Astronomy
+鳥船遺跡 ～ Trojan Green Asteroid
+伊弉諾物質　～ Neo-traditionalism of Japan</t>
+  </si>
+  <si>
+    <t>(Music CDs)
+幺樂団の歴史１ ～ Akyu's Untouched Score vol.1 - CD cover
+幺樂団の歴史２ ～ Akyu's Untouched Score vol.2 - CD cover
+幺樂団の歴史３ ～ Akyu's Untouched Score vol.3 - CD cover
+幺樂団の歴史４ ～ Akyu's Untouched Score vol.4 - CD cover
+幺樂団の歴史５ ～ Akyu's Untouched Score vol.5 - CD cover
+(Books)
+Perfect Memento in Strict Sense (Main Character)
+Memorizable Gensokyo (Main Character)</t>
+  </si>
+  <si>
+    <t>Perfect Cherry Blossom (Stage 3 Spell Card)
+Immaterial and Missing Power (Level 1 Spell Card)</t>
+  </si>
+  <si>
+    <t>Perfect Cherry Blossom (Stage 3 Lunatic Spell Card)
+Immaterial and Missing Power (Level 2 spell card)</t>
+  </si>
+  <si>
+    <t>Silent Sinner in Blue
+Cage in Lunatic Runagate
+Inaba of the Moon and Inaba of the Earth</t>
+  </si>
+  <si>
+    <t>Wild and Horned Hermit (Main Character)
+Oriental Sacred Place (Chapters 16 &amp; 17)</t>
+  </si>
+  <si>
+    <t>Forbidden Scrollery (Main Character)
+Hopeless Masquerade (Background Character)</t>
+  </si>
+  <si>
+    <t>Titles</t>
+  </si>
+  <si>
+    <t>Heroine (TH01, TH02)
+Shrine Maiden who Protects Dream and Tradition (TH03, TH04)
+Shrine Maiden (TH05)
+Eternal Shrine Maiden (SSG, TH06)
+Wonderful Shrine Maiden of Paradise (TH07, TH7.5, TH08, TH09)
+Shrine Maiden of Paradise (TH10, TH10.5, TH11, TH12, TH12.3, PMiSS)
+Sunny Shrine Maiden (TH10.5)
+Flying Mysterious Shrine Maiden (TH12.5)
+Freewheeling Human (WaHH)
+Shrine Maiden of the Five Desires (TH13)
+Wonderful Shaman of Paradise (FS)
+Speaker for the Eight Million Gods (HM)</t>
+  </si>
+  <si>
+    <t>A Being made of Magic and Red Dream (TH03, TH04)
+A Magician (TH05)
+Magician of Red Dreams (SSG)
+The Strange Magician (TH06)
+Ordinary Magician (TH07, TH07.5, TH08, TH10.5, TH11, TH12, TH12.3, TH12.5, PMiSS)
+An Ordinary Black Magician (TH08 character intros.txt, TH09, TH10)
+Magician of Misty Rain (TH10.5)
+Boldly Timid Human (WaHH)
+The Magician Passing By (TH12.8)
+Greedy Magician (TH13)
+Extremely Ordinary Magician (FS)
+The Magician Representing Humanity (HM)</t>
+  </si>
+  <si>
+    <t>Gatekeeper (HRtP)</t>
+  </si>
+  <si>
+    <t>Evil Eyes (HRtP)</t>
+  </si>
+  <si>
+    <t>Vengeful Ghost (TH01)
+Spirit Who leaves Fate to the Dream of Eternity (TH03)
+An Evil Spirit (TH05)</t>
+  </si>
+  <si>
+    <t>Innocent Devil (TH01)</t>
+  </si>
+  <si>
+    <t>Hellish Moon (TH01)</t>
+  </si>
+  <si>
+    <t>Astral Knight (HRtP)</t>
+  </si>
+  <si>
+    <t>Angel of Death (HRtP)</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Engineer (TH02)</t>
+  </si>
+  <si>
+    <t>Samurai (TH02)</t>
+  </si>
+  <si>
+    <t>Hardworking witch who dreams of love (TH03)</t>
+  </si>
+  <si>
+    <t>A princess dreaming of beauty in Danmaku (TH03)</t>
+  </si>
+  <si>
+    <t>Maiden poltergeist who's lost her dreams (TH03)</t>
+  </si>
+  <si>
+    <t>Scientist that looks for dreams (TH03)</t>
+  </si>
+  <si>
+    <t>Resident of Fantasy that Runs Through Time (TH03)</t>
+  </si>
+  <si>
+    <t>Professor
+Fantasy legend (TH03)</t>
+  </si>
+  <si>
+    <t>No titles</t>
+  </si>
+  <si>
+    <t>Supernatural Creature (TH04)</t>
+  </si>
+  <si>
+    <t>Vampire Girl (TH04)</t>
+  </si>
+  <si>
+    <t>The Porter of a Mansion (TH04)</t>
+  </si>
+  <si>
+    <t>Oriental Demon (TH04)
+Youkai (TH05)
+Beauty of Everlasting Darkness (KOG)
+Flower Master of the Four Seasons (TH09, PMiSS)</t>
+  </si>
+  <si>
+    <t>Maid (TH04)</t>
+  </si>
+  <si>
+    <t>Gate Keeper (TH05)</t>
+  </si>
+  <si>
+    <t>Demon Boundary Person (TH05)</t>
+  </si>
+  <si>
+    <t>Young Lady of Death (TH05, stage 3 boss)
+ Alice of the Country of Magic (TH05, extra stage boss)
+ Seven-Colored Puppeteer (TH07, TH7.5, TH08, TH10.5, TH11, TH12.3, PMiSS)
+ Superficially Busy Youkai (TH9.5)
+ Puppeteer of Hail (TH10.5)</t>
+  </si>
+  <si>
+    <t>Black Witch (TH05)</t>
+  </si>
+  <si>
+    <t>White Witch (TH05)</t>
+  </si>
+  <si>
+    <t>Maid (TH05)</t>
+  </si>
+  <si>
+    <t>Goddess of Devil's World (TH05)</t>
+  </si>
+  <si>
+    <t>Youkai of the Dusk (TH06)
+Youkai Hiding in the Darkness (TH9.5)
+Youkai of Twilight (PMiSS)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Ice Fairy of the Lake (TH06)
+Youkai of the Ice (TH07)
+Small Ice Fairy (TH09)
+Unnatural Chill (TH9.5)
+Ice Fairy (TH12.3)
+Fairy of Ice (PMiSS)</t>
+  </si>
+  <si>
+    <t>Chinese Girl (TH06, TH12.3, PMiSS)
+Colorful Rainbow Gatekeeper (TH7.5)</t>
+  </si>
+  <si>
+    <t>The Girl of Knowledge and Shadow (TH06)
+The Unmoving Great Library (TH7.5, TH10.5, TH11, TH12.3)
+Enigmatic Source of Magic (TH9.5)
+Witch of the Spring Haze (TH10.5)
+Unmoving Great Library (PMiSS)</t>
+  </si>
+  <si>
+    <t>Maid of the Scarlet Devil Mansion (TH06, TH07, TH08)
+Perfect and Elegant Servant (TH07.5, TH10.5)
+Chief Maid of the Scarlet Devil Mansion
+Perfect and Elegant Maid (TH09, TH12.3)
+Dangerous Illusionist (TH9.5)
+Maid of the Evening Storm (TH10.5)
+Scarlet Devil Mansion Maid (PMiSS)
+The Vampire's Maid (FS)</t>
+  </si>
+  <si>
+    <t>Eternally Young Scarlet Moon (TH06, TH10.5)
+The Eternally Red New Moon (TH7.5)
+The Scarlet Devil (TH08, PMiSS)
+World of Crimson (TH9.5)
+Vampire of the Heavy Fog (TH10.5)
+Eternally Young Red Moon (TH12.3)</t>
+  </si>
+  <si>
+    <t>Sister of the Devil (TH06, PMiSS)
+Diabolic Wave (TH9.5)</t>
+  </si>
+  <si>
+    <t>What Winter Left Behind (TH07)
+Localized Cold Wave (TH9.5)
+Youkai of Winter (PMiSS)</t>
+  </si>
+  <si>
+    <t>Black Cat of Bad Omens (TH07, PMiSS)
+ A Shikigami of a Shikigami of the Sukima Youkai (TH07 info)
+ Hyperactive Monster Cat (TH9.5)</t>
+  </si>
+  <si>
+    <t>Fairy Herald of Spring (TH07 character intros.txt)
+Fairy Conveying Spring (PMiSS)</t>
+  </si>
+  <si>
+    <t>Three Poltergeist Sisters (TH07)
+Lunasa: Poltergeist Violinist (TH09, PMiSS)
+Merlin: Poltergeist Trumpeter (TH09, PMiSS)
+Lyrica: Poltergeist Keyboardist (TH09, PMiSS)</t>
+  </si>
+  <si>
+    <t>Ghostly Gardener (TH07)
+Half-phantom Gardener (TH07.5, TH10.5, TH12.3, PMiSS)
+Half-human Half-ghost (TH08)
+Half-human Half-ghost and Half-baked (TH09)
+Kirisute Gomen (TH9.5)
+Gardener of the Azure Sky (TH10.5)
+Half-Spirit with Desire for Death(TH13)</t>
+  </si>
+  <si>
+    <t>Ghostly Girl in the Netherworld Tower (TH07)
+Innocent Ghost (TH7.5, TH10.5, TH12.3)
+Ghost from the Calamitous Nirvana (TH08)
+Dreaming Ghost (TH8 character intros)
+Elegant Ghost Photography (TH9.5)
+Snowy Ghost (TH10.5)
+Stationary Ghost (TH13)
+The Elegant Ghost (PMiSS)</t>
+  </si>
+  <si>
+    <t>Shikigami of the Youkai of Boundaries (TH07)
+Unusual Animal (TH9.5)
+The Scheming Nine-Tailed Fox (PMiSS)</t>
+  </si>
+  <si>
+    <t>Mastermind Behind the Spiriting Away (TH07)
+Border of Phantasm (TH7.5, TH10.5, TH12.3)
+Youkai of Boundaries (TH08, PMiSS, TH11)
+Youkai that lurks in the Boundary (TH08 character intros)
+Uncanny Smile (TH9.5)
+Phantasmal Wedding of the Kitsune / Phantasmal Sunshower* (TH10.5)
+(* The latter 2/3s of Yukari's 2nd TH10.5 title is "kitsune no yomeiri", which refers to rain falling from a clear sky, a.k.a. a sunshower.)
+The Youkai Who Comes And Goes As She Pleases (WaHH)</t>
+  </si>
+  <si>
+    <t>Forgathering Dream, Illusion, and Pandemonium (TH7.5)
+The Dawn of Time (TH9.5)
+Little Pandemonic Carnival (PMiSS)
+Tiny/Little Pandemonium (TH10.5, TH11, TH12.3)
+Sprinkling Pandemonium (TH10.5)
+Free-Spirited Old Timer (TH12.5)
+Free-Spirited Oni (WaHH)</t>
+  </si>
+  <si>
+    <t>A Bug of Light Wriggling in the Dark (TH08, PMiSS)
+Swarm of Bright Bugs (TH9.5)</t>
+  </si>
+  <si>
+    <t>Night Sparrow (alternate translation of below title)
+Wonder of the Night Sparrow (TH08, TH09)
+Night Sparrow Youkai (TH9.5, PMiSS)</t>
+  </si>
+  <si>
+    <t>Half-beast of Knowledge and History (TH08)
+History Eater (TH08 character intros.txt)
+Formal Historian (TH9.5)
+History-eating Half-beast (PMiSS)</t>
+  </si>
+  <si>
+    <t>Earthborn Rabbit (TH08)
+White Rabbit of Good Fortune (TH09, PMiSS)
+Herd of Leaping Rabbits (TH9.5)</t>
+  </si>
+  <si>
+    <t>Lunatic Moon Rabbit (TH08, TH09)
+Sight-Shaking Youkai Rabbit (TH9.5)
+Lunatic Red Eyes (PMiSS)
+Red Eyes of Madness (TH10.5, TH12.3)</t>
+  </si>
+  <si>
+    <t>Brain of the Moon (TH08)
+Town Pharmacist (TH9.5)
+Hourai Pharmacist (PMiSS)</t>
+  </si>
+  <si>
+    <t>The Eternal Moon Princess (TH08,PMiSS)
+Inhuman Princess (TH9.5)</t>
+  </si>
+  <si>
+    <t>Figure of the Person of Hourai (TH08)
+Human Immune to Death by Fire (TH9.5)
+The Crimson Watchguard (PMiSS)</t>
+  </si>
+  <si>
+    <t>Humble Tengu Reporter (TH9.5)
+ Tengu Closest to the Village(TH10)
+ Crow of Wind and Rain (TH10.5)
+ Fabricating Newspaper Reporter (TH12.5)
+ Traditional Reporter of Fantasy (TH12.3, PMiSS)</t>
+  </si>
+  <si>
+    <t>Little Sweet Poison (TH09, PMiSS)
+Poison Doll (TH9.5)</t>
+  </si>
+  <si>
+    <t>Guide of the Sanzu no Kawa (TH09, 10.5, PMiSS)
+Edokko God of Death (TH9.5)
+Guide of Riverside Mist (TH10.5)
+Sanzu River Ferryman (TH12.3)
+Fallen and Ruined Shinigami (WaHH)</t>
+  </si>
+  <si>
+    <t>Highest Judge of Paradise (TH09)
+Helpful Lecture (TH9.5)
+Supreme Judge of Hell (PMiSS)</t>
+  </si>
+  <si>
+    <t>Symbol of loneliness and death (TH10)
+Painful Red Rain (TH12.5)</t>
+  </si>
+  <si>
+    <t>Symbol of Abundance and Plenty (TH10)
+Sweet-Smelling God (TH12.5)</t>
+  </si>
+  <si>
+    <t>Nagashi-hina of the Hidden God (TH10)
+Master of Warding Away Bad Luck (TH12.5)</t>
+  </si>
+  <si>
+    <t>Super Youkai Warhead (TH10, TH11)
+Aquatic Engineer (TH12.5)
+The Kappa Thinking by the Waterside (WaHH)</t>
+  </si>
+  <si>
+    <t>The Petty Patrol Tengu (TH10)
+Mountain's Telegnosis (TH12.5)</t>
+  </si>
+  <si>
+    <t>Deified Human of the Wind (TH10)
+ Newbie Goddess of the Mountain (TH12)
+ Embodiment of the Divine Wind (TH12.3)
+ Modern Living God (TH12.5)
+ Skin-deep and Shallow Human (WaHH)
+ Shrine Maiden of Selfish Desires (TH13)</t>
+  </si>
+  <si>
+    <t>The Avatar of Mountains and Lakes (TH10)
+God that Likes Hills (TH12.5)
+Independent and Inflexible God (WaHH)</t>
+  </si>
+  <si>
+    <t>The Highest/Epitome of Native Gods (TH10, TH12.3)
+ Amphibian God (TH12.5)
+ God in Name Alone (WaHH)</t>
+  </si>
+  <si>
+    <t>Beautiful Scarlet Cloth (TH10.5, TH12.3)
+Flying Rare Item (TH12.5)</t>
+  </si>
+  <si>
+    <t>Thoughtless Not-so-Thoughtless Daughter of the Heavens (TH10.5)
+Daughter of Bhavagra (TH12.3)
+Young Mistress of Bhavagra (TH12.5)</t>
+  </si>
+  <si>
+    <t>The Fearsome Well Spirit (TH11)
+Autumn Day's Man-Eater (TH12.5)</t>
+  </si>
+  <si>
+    <t>The Bright Net in the Dark Cavern (TH11)
+Mood of Creeping Terror (TH12.5)</t>
+  </si>
+  <si>
+    <t>The Jealousy Beneath the Earth's Crust (TH11)
+Monster with Green Eyes (TH12.5)</t>
+  </si>
+  <si>
+    <t>The Rumored Unnatural Phenomenon (TH11)
+Ruinous Super Strength (TH12.5)</t>
+  </si>
+  <si>
+    <t>The Girl Even The Evil Spirits Fear (TH11)
+Sickness in Everyone's Heart (TH12.5)</t>
+  </si>
+  <si>
+    <t>Hell's Traffic Accident (TH11)
+Corpse Tour Guide (TH12.5)</t>
+  </si>
+  <si>
+    <t>The Scorching, Troublesome Divine Flame (TH11)
+Searing Divine Flame (TH12.3)
+Subterranean Sun (TH12.5)</t>
+  </si>
+  <si>
+    <t>The Closed Eyes of Love (TH11)
+Someone Thinking of Nothing (TH12.5)
+Imaginary Personality Holder (TH13.5)</t>
+  </si>
+  <si>
+    <t>The Little Dowser General (TH12)
+Simple Dowser (TH12.5)</t>
+  </si>
+  <si>
+    <t>The Cheery Forgotten Umbrella (TH12)
+Pitiable Illegally Dumped Object (TH12.5)
+Troubled Forgotten Item (TH13)</t>
+  </si>
+  <si>
+    <t>The Big Wheel That Guards and is Guarded (TH12)
+The Flower that Blooms in the Sky (TH12.5)</t>
+  </si>
+  <si>
+    <t>The Ghost Left From the Drowning Accident (TH12)
+Miserable Depths of the Ocean (TH12.5)</t>
+  </si>
+  <si>
+    <t>Disciple of Bishamonten (TH12)
+Upstart Beast Youkai (TH12.5)</t>
+  </si>
+  <si>
+    <t>The Great Sealed Magician (TH12)
+ Hardworking Nun (TH12.5) 
+ Magical Chief Priest of the Youkai Temple (SoPm)
+ The Ācārya who Surpassed Primates (TH13.5)</t>
+  </si>
+  <si>
+    <t>The Unidentified Fantastic Flying Girl (TH12)
+The One Changing Between a Tiger and a Bird (TH12.5)
+Old Youkai #1 (TH13)</t>
+  </si>
+  <si>
+    <t>Modern Day Spirit Photographer (TH12.5 profile)
+Inexperienced Spoiler Reporter (TH12.5 enemy)</t>
+  </si>
+  <si>
+    <t>Sunny
+Prank-loving Sunlight (PMiSS)
+The Shining Sunlight (TH12.8)
+Luna
+Silent Moonlight (PMiSS)
+The Peaceful Moonlight (TH12.8)
+Star
+Pouring Starlight (PMiSS, TH12.8)</t>
+  </si>
+  <si>
+    <t>Echoing Sutra Chant (TH13)
+Common and Cliché Yamabiko (WaHH)</t>
+  </si>
+  <si>
+    <t>Loyal Corpse (TH13)</t>
+  </si>
+  <si>
+    <t>The Wicked Hermit Who Passes Through Walls (TH13)
+Unreasonable and Unjust Hermit (WaHH)</t>
+  </si>
+  <si>
+    <t>Departed Spirit of the Children of the Gods (TH13)</t>
+  </si>
+  <si>
+    <t>A Shikaisen from Ancient Japan (TH13)
+The Feng Shui Master who Controls Dragon Lines (TH13.5)</t>
+  </si>
+  <si>
+    <t>Shoutoku Taoist (TH13)
+The Almighty Taoist who Administers Space (TH13.5)</t>
+  </si>
+  <si>
+    <t>The Tanuki Youkai with Ten Transformations (TH13)
+Barely Present Foreign Youkai (WaHH)
+Uncaught Tanuki Disguiser (FS)</t>
+  </si>
+  <si>
+    <t>The Expressive Poker Face (TH13.5)</t>
+  </si>
+  <si>
+    <t>Mermaid Living in Fresh Water (TH14)</t>
+  </si>
+  <si>
+    <t>Rokurokubi's Strangeness (TH14)</t>
+  </si>
+  <si>
+    <t>The Bamboo Forest's Loup-Garou (Werewolf) (TH14)</t>
+  </si>
+  <si>
+    <t>Tsukumogami of an Aging Biwa (TH14)</t>
+  </si>
+  <si>
+    <t>Tsukumogami of an Aging Koto (TH14)</t>
+  </si>
+  <si>
+    <t>The Counterattacking Amanojaku (TH14)</t>
+  </si>
+  <si>
+    <t>Descendant of the Kobito (TH14)</t>
+  </si>
+  <si>
+    <t>Phantasmal Percussionist (TH14)</t>
+  </si>
+  <si>
+    <t>Store Owner of Kourindou (PMiSS)
+The Unmoving Used Goods Seller</t>
+  </si>
+  <si>
+    <t>Memory of Gensokyo (PMiSS promotional comic)
+The Ninth Savant (FS)</t>
+  </si>
+  <si>
+    <t>The Moon Princess Connecting Mountain and Sea</t>
+  </si>
+  <si>
+    <t>The Moon Princess Possessed by Divine Spirits</t>
+  </si>
+  <si>
+    <t>The One-Armed, Horned Sennin (WaHH)</t>
+  </si>
+  <si>
+    <t>Bibliophilia Who Has an Eye for Deciphering (FS)</t>
   </si>
 </sst>
 </file>
@@ -6873,4 +9081,4196 @@
   <pageSetup/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B128"/>
+  <sheetViews>
+    <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.58988764044944"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="1392.3898876404494"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>637</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="true"/>
+  <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
+  <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
+  <pageSetup/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B128"/>
+  <sheetViews>
+    <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.58988764044944"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="227.48988764044947"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>741</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="true"/>
+  <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
+  <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
+  <pageSetup/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B128"/>
+  <sheetViews>
+    <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.58988764044944"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="707.0898876404495"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>855</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="true"/>
+  <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
+  <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
+  <pageSetup/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B128"/>
+  <sheetViews>
+    <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.58988764044944"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="369.3898876404495"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>965</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="true"/>
+  <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
+  <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
+  <pageSetup/>
+  <headerFooter/>
+</worksheet>
 </file>